--- a/RekapSurveySensusDesaSedah/K23_GUNDI/K23.xlsx
+++ b/RekapSurveySensusDesaSedah/K23_GUNDI/K23.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="627">
-  <si>
-    <t>he</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="625">
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Nama</t>
@@ -1369,9 +1369,6 @@
     <t>NARASHYA ELVIRA NAYLINDRA</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Mubin</t>
   </si>
   <si>
@@ -1892,16 +1889,13 @@
   </si>
   <si>
     <t>Teritary Education</t>
-  </si>
-  <si>
-    <t>Muthmainnah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1915,6 +1909,10 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1993,7 +1991,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2070,14 +2068,15 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -38678,7 +38677,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
@@ -38724,13 +38723,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
@@ -38745,13 +38744,13 @@
     <row r="3">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>365</v>
@@ -38777,10 +38776,10 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>66</v>
@@ -38798,10 +38797,10 @@
     <row r="6">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>66</v>
@@ -38830,7 +38829,7 @@
         <v>3.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>38</v>
@@ -38851,10 +38850,10 @@
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="1" t="s">
@@ -38870,7 +38869,7 @@
     <row r="10">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -38885,7 +38884,7 @@
     <row r="11">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -38911,13 +38910,13 @@
         <v>4.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -38938,7 +38937,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -38964,7 +38963,7 @@
         <v>5.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
@@ -38996,7 +38995,7 @@
         <v>6.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>84</v>
@@ -39017,7 +39016,7 @@
     <row r="19">
       <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>21</v>
@@ -39049,7 +39048,7 @@
         <v>7.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>38</v>
@@ -39070,13 +39069,13 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -39091,7 +39090,7 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -39119,7 +39118,7 @@
         <v>8.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>42</v>
@@ -39140,7 +39139,7 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>91</v>
@@ -39159,7 +39158,7 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>42</v>
@@ -39178,7 +39177,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
@@ -39210,10 +39209,10 @@
         <v>9.0</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>66</v>
@@ -39231,7 +39230,7 @@
     <row r="31">
       <c r="A31" s="5"/>
       <c r="B31" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -39263,13 +39262,13 @@
         <v>10.0</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>85</v>
@@ -39284,7 +39283,7 @@
     <row r="34">
       <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>21</v>
@@ -39305,10 +39304,10 @@
     <row r="35">
       <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -39322,10 +39321,10 @@
     <row r="36">
       <c r="A36" s="5"/>
       <c r="B36" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -39350,7 +39349,7 @@
         <v>11.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>38</v>
@@ -39371,7 +39370,7 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>38</v>
@@ -39392,7 +39391,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>16</v>
@@ -39413,13 +39412,13 @@
     <row r="41">
       <c r="A41" s="5"/>
       <c r="B41" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
@@ -39434,7 +39433,7 @@
     <row r="42">
       <c r="A42" s="5"/>
       <c r="B42" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -39460,13 +39459,13 @@
         <v>12.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>85</v>
@@ -39481,13 +39480,13 @@
     <row r="45">
       <c r="A45" s="5"/>
       <c r="B45" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>85</v>
@@ -39502,7 +39501,7 @@
     <row r="46">
       <c r="A46" s="5"/>
       <c r="B46" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>104</v>
@@ -39523,7 +39522,7 @@
     <row r="47">
       <c r="A47" s="5"/>
       <c r="B47" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>56</v>
@@ -39551,7 +39550,7 @@
         <v>13.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>42</v>
@@ -39572,13 +39571,13 @@
     <row r="50">
       <c r="A50" s="5"/>
       <c r="B50" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>85</v>
@@ -39604,13 +39603,13 @@
         <v>14.0</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>14</v>
@@ -39625,13 +39624,13 @@
     <row r="53">
       <c r="A53" s="5"/>
       <c r="B53" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>85</v>
@@ -39646,7 +39645,7 @@
     <row r="54">
       <c r="A54" s="5"/>
       <c r="B54" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -39672,10 +39671,10 @@
         <v>15.0</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>62</v>
@@ -39693,7 +39692,7 @@
     <row r="57">
       <c r="A57" s="5"/>
       <c r="B57" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>21</v>
@@ -39725,13 +39724,13 @@
         <v>16.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>23</v>
@@ -39746,13 +39745,13 @@
     <row r="60">
       <c r="A60" s="5"/>
       <c r="B60" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>23</v>
@@ -39778,10 +39777,10 @@
         <v>17.0</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>62</v>
@@ -39810,7 +39809,7 @@
         <v>18.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>38</v>
@@ -39831,7 +39830,7 @@
     <row r="65">
       <c r="A65" s="5"/>
       <c r="B65" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>21</v>
@@ -39852,10 +39851,10 @@
     <row r="66">
       <c r="A66" s="5"/>
       <c r="B66" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="1" t="s">
@@ -39871,7 +39870,7 @@
     <row r="67">
       <c r="A67" s="5"/>
       <c r="B67" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>56</v>
@@ -39901,13 +39900,13 @@
         <v>19.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>14</v>
@@ -39922,13 +39921,13 @@
     <row r="70">
       <c r="A70" s="5"/>
       <c r="B70" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>10</v>
@@ -39943,10 +39942,10 @@
     <row r="71">
       <c r="A71" s="5"/>
       <c r="B71" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="1" t="s">
@@ -39962,7 +39961,7 @@
     <row r="72">
       <c r="A72" s="5"/>
       <c r="B72" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -39990,7 +39989,7 @@
         <v>20.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>38</v>
@@ -40011,7 +40010,7 @@
     <row r="75">
       <c r="A75" s="5"/>
       <c r="B75" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>21</v>
@@ -40032,10 +40031,10 @@
     <row r="76">
       <c r="A76" s="5"/>
       <c r="B76" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>53</v>
@@ -40053,7 +40052,7 @@
     <row r="77">
       <c r="A77" s="5"/>
       <c r="B77" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="1" t="s">
@@ -40083,10 +40082,10 @@
         <v>21.0</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>45</v>
@@ -40115,13 +40114,13 @@
         <v>22.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>14</v>
@@ -40136,10 +40135,10 @@
     <row r="82">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>17</v>
@@ -40168,7 +40167,7 @@
         <v>23.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>65</v>
@@ -40200,13 +40199,13 @@
         <v>24.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>14</v>
@@ -40221,13 +40220,13 @@
     <row r="87">
       <c r="A87" s="5"/>
       <c r="B87" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>14</v>
@@ -40253,7 +40252,7 @@
         <v>25.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>42</v>
@@ -40274,7 +40273,7 @@
     <row r="90">
       <c r="A90" s="5"/>
       <c r="B90" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>42</v>
@@ -40295,7 +40294,7 @@
     <row r="91">
       <c r="A91" s="5"/>
       <c r="B91" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -40323,7 +40322,7 @@
         <v>26.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>65</v>
@@ -40344,10 +40343,10 @@
     <row r="94">
       <c r="A94" s="5"/>
       <c r="B94" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>17</v>
@@ -40376,11 +40375,11 @@
         <v>27.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>14</v>
@@ -40406,13 +40405,13 @@
         <v>28.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>23</v>
@@ -40427,13 +40426,13 @@
     <row r="99">
       <c r="A99" s="5"/>
       <c r="B99" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>14</v>
@@ -40459,13 +40458,13 @@
         <v>30.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>14</v>
@@ -40480,13 +40479,13 @@
     <row r="102">
       <c r="A102" s="5"/>
       <c r="B102" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>10</v>
@@ -40512,7 +40511,7 @@
         <v>31.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>16</v>
@@ -40533,13 +40532,13 @@
     <row r="105">
       <c r="A105" s="5"/>
       <c r="B105" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>14</v>
@@ -40565,13 +40564,13 @@
         <v>32.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>14</v>
@@ -40586,13 +40585,13 @@
     <row r="108">
       <c r="A108" s="5"/>
       <c r="B108" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>23</v>
@@ -40618,10 +40617,10 @@
         <v>33.0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>17</v>
@@ -40650,13 +40649,13 @@
         <v>34.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>140</v>
@@ -40671,10 +40670,10 @@
     <row r="113">
       <c r="A113" s="5"/>
       <c r="B113" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="1" t="s">
@@ -40701,13 +40700,13 @@
         <v>35.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>14</v>
@@ -40722,7 +40721,7 @@
     <row r="116">
       <c r="A116" s="5"/>
       <c r="B116" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>212</v>
@@ -40752,7 +40751,7 @@
         <v>36.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>38</v>
@@ -40782,13 +40781,13 @@
         <v>37.0</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>14</v>
@@ -40811,16 +40810,16 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>14</v>
@@ -40835,13 +40834,13 @@
     <row r="123">
       <c r="A123" s="5"/>
       <c r="B123" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>14</v>
@@ -40856,10 +40855,10 @@
     <row r="124">
       <c r="A124" s="5"/>
       <c r="B124" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="1" t="s">
@@ -40886,7 +40885,7 @@
         <v>39.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>16</v>
@@ -40907,7 +40906,7 @@
     <row r="127">
       <c r="A127" s="5"/>
       <c r="B127" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>16</v>
@@ -40926,7 +40925,7 @@
     <row r="128">
       <c r="A128" s="5"/>
       <c r="B128" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>104</v>
@@ -40945,7 +40944,7 @@
     <row r="129">
       <c r="A129" s="5"/>
       <c r="B129" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>56</v>
@@ -40975,7 +40974,7 @@
         <v>40.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>100</v>
@@ -40996,13 +40995,13 @@
     <row r="132">
       <c r="A132" s="5"/>
       <c r="B132" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>14</v>
@@ -41017,7 +41016,7 @@
     <row r="133">
       <c r="A133" s="5"/>
       <c r="B133" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>84</v>
@@ -41038,10 +41037,10 @@
     <row r="134">
       <c r="A134" s="5"/>
       <c r="B134" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="1" t="s">
@@ -41068,7 +41067,7 @@
         <v>41.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>16</v>
@@ -41087,10 +41086,10 @@
     <row r="137">
       <c r="A137" s="5"/>
       <c r="B137" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="1" t="s">
@@ -41106,10 +41105,10 @@
     <row r="138">
       <c r="A138" s="5"/>
       <c r="B138" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="1" t="s">
@@ -41125,10 +41124,10 @@
     <row r="139">
       <c r="A139" s="5"/>
       <c r="B139" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="1" t="s">
@@ -41155,7 +41154,7 @@
         <v>42.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>21</v>
@@ -41187,7 +41186,7 @@
         <v>43.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>38</v>
@@ -41208,7 +41207,7 @@
     <row r="144">
       <c r="A144" s="5"/>
       <c r="B144" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>212</v>
@@ -41240,7 +41239,7 @@
         <v>44.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>131</v>
@@ -41261,7 +41260,7 @@
     <row r="147">
       <c r="A147" s="5"/>
       <c r="B147" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>21</v>
@@ -41280,7 +41279,7 @@
     <row r="148">
       <c r="A148" s="5"/>
       <c r="B148" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>104</v>
@@ -41299,7 +41298,7 @@
     <row r="149">
       <c r="A149" s="5"/>
       <c r="B149" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>56</v>
@@ -41318,7 +41317,7 @@
     <row r="150">
       <c r="A150" s="5"/>
       <c r="B150" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>56</v>
@@ -41348,13 +41347,13 @@
         <v>45.0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>14</v>
@@ -41369,7 +41368,7 @@
     <row r="153">
       <c r="A153" s="5"/>
       <c r="B153" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>42</v>
@@ -41388,7 +41387,7 @@
     <row r="154">
       <c r="A154" s="5"/>
       <c r="B154" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>56</v>
@@ -41407,7 +41406,7 @@
     <row r="155">
       <c r="A155" s="5"/>
       <c r="B155" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>56</v>
@@ -41437,7 +41436,7 @@
         <v>46.0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>16</v>
@@ -41458,7 +41457,7 @@
     <row r="158">
       <c r="A158" s="5"/>
       <c r="B158" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>21</v>
@@ -41479,7 +41478,7 @@
     <row r="159">
       <c r="A159" s="5"/>
       <c r="B159" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>56</v>
@@ -41507,13 +41506,13 @@
         <v>47.0</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>14</v>
@@ -41528,7 +41527,7 @@
     <row r="162">
       <c r="A162" s="5"/>
       <c r="B162" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>16</v>
@@ -41560,7 +41559,7 @@
         <v>48.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>16</v>
@@ -41581,7 +41580,7 @@
     <row r="165">
       <c r="A165" s="5"/>
       <c r="B165" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>16</v>
@@ -41602,7 +41601,7 @@
     <row r="166">
       <c r="A166" s="5"/>
       <c r="B166" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -41619,7 +41618,7 @@
     <row r="167">
       <c r="A167" s="5"/>
       <c r="B167" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -41647,7 +41646,7 @@
         <v>49.0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>16</v>
@@ -41666,7 +41665,7 @@
     <row r="170">
       <c r="A170" s="5"/>
       <c r="B170" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>21</v>
@@ -41687,7 +41686,7 @@
     <row r="171">
       <c r="A171" s="5"/>
       <c r="B171" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -41702,7 +41701,7 @@
     <row r="172">
       <c r="A172" s="5"/>
       <c r="B172" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -41728,13 +41727,13 @@
         <v>50.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>23</v>
@@ -41760,13 +41759,13 @@
         <v>51.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>23</v>
@@ -41781,7 +41780,7 @@
     <row r="177">
       <c r="A177" s="5"/>
       <c r="B177" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>16</v>
@@ -41802,7 +41801,7 @@
     <row r="178">
       <c r="A178" s="5"/>
       <c r="B178" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>104</v>
@@ -41832,13 +41831,13 @@
         <v>52.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>10</v>
@@ -41853,13 +41852,13 @@
     <row r="181">
       <c r="A181" s="5"/>
       <c r="B181" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>14</v>
@@ -41885,7 +41884,7 @@
         <v>53.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -41902,7 +41901,7 @@
     <row r="184">
       <c r="A184" s="5"/>
       <c r="B184" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>42</v>
@@ -44429,19 +44428,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="F1" s="6"/>
     </row>
@@ -44468,19 +44467,11 @@
     </row>
     <row r="3">
       <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="25"/>
     </row>
     <row r="4">
@@ -44514,19 +44505,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="25"/>
     </row>
     <row r="7">
@@ -44560,19 +44543,11 @@
     </row>
     <row r="9">
       <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="25"/>
     </row>
     <row r="10">
@@ -44606,19 +44581,11 @@
     </row>
     <row r="12">
       <c r="A12" s="5"/>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="25"/>
     </row>
     <row r="13">
@@ -44652,17 +44619,11 @@
     </row>
     <row r="15">
       <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="25"/>
     </row>
     <row r="16">
@@ -44696,17 +44657,11 @@
     </row>
     <row r="18">
       <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19">
@@ -44735,15 +44690,11 @@
     </row>
     <row r="21">
       <c r="A21" s="5"/>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="5"/>
@@ -44776,19 +44727,11 @@
     </row>
     <row r="24">
       <c r="A24" s="5"/>
-      <c r="B24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="25"/>
     </row>
     <row r="25">
@@ -44909,53 +44852,29 @@
     </row>
     <row r="33">
       <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="25"/>
     </row>
     <row r="34">
       <c r="A34" s="1"/>
-      <c r="B34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="25"/>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="25"/>
     </row>
     <row r="36">
@@ -44989,40 +44908,20 @@
     </row>
     <row r="38">
       <c r="A38" s="5"/>
-      <c r="B38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
       <c r="G38" s="25"/>
     </row>
     <row r="39">
       <c r="A39" s="5"/>
-      <c r="B39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
       <c r="G39" s="25"/>
     </row>
     <row r="40">
@@ -45056,36 +44955,20 @@
     </row>
     <row r="42">
       <c r="A42" s="5"/>
-      <c r="B42" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
       <c r="G42" s="25"/>
     </row>
     <row r="43">
       <c r="A43" s="5"/>
-      <c r="B43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
       <c r="G43" s="25"/>
     </row>
     <row r="44">
@@ -45119,21 +45002,11 @@
     </row>
     <row r="46">
       <c r="A46" s="5"/>
-      <c r="B46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
       <c r="G46" s="25"/>
     </row>
     <row r="47">
@@ -45167,38 +45040,20 @@
     </row>
     <row r="49">
       <c r="A49" s="5"/>
-      <c r="B49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
       <c r="G49" s="25"/>
     </row>
     <row r="50">
       <c r="A50" s="5"/>
-      <c r="B50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
       <c r="G50" s="25"/>
     </row>
     <row r="51">
@@ -45232,36 +45087,20 @@
     </row>
     <row r="53">
       <c r="A53" s="5"/>
-      <c r="B53" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
       <c r="G53" s="25"/>
     </row>
     <row r="54">
       <c r="A54" s="5"/>
-      <c r="B54" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B54" s="3"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
       <c r="G54" s="25"/>
     </row>
     <row r="55">
@@ -45295,55 +45134,29 @@
     </row>
     <row r="57">
       <c r="A57" s="5"/>
-      <c r="B57" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
       <c r="G57" s="25"/>
     </row>
     <row r="58">
       <c r="A58" s="5"/>
-      <c r="B58" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
       <c r="G58" s="25"/>
     </row>
     <row r="59">
       <c r="A59" s="5"/>
-      <c r="B59" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
       <c r="G59" s="25"/>
     </row>
     <row r="60">
@@ -45377,40 +45190,20 @@
     </row>
     <row r="62">
       <c r="A62" s="5"/>
-      <c r="B62" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
       <c r="G62" s="25"/>
     </row>
     <row r="63">
       <c r="A63" s="5"/>
-      <c r="B63" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
       <c r="G63" s="25"/>
     </row>
     <row r="64">
@@ -45444,53 +45237,29 @@
     </row>
     <row r="66">
       <c r="A66" s="5"/>
-      <c r="B66" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
       <c r="G66" s="25"/>
     </row>
     <row r="67">
       <c r="A67" s="5"/>
-      <c r="B67" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
       <c r="G67" s="25"/>
     </row>
     <row r="68">
       <c r="A68" s="5"/>
-      <c r="B68" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="B68" s="3"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
       <c r="G68" s="25"/>
     </row>
     <row r="69">
@@ -45524,38 +45293,20 @@
     </row>
     <row r="71">
       <c r="A71" s="5"/>
-      <c r="B71" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
       <c r="G71" s="25"/>
     </row>
     <row r="72">
       <c r="A72" s="5"/>
-      <c r="B72" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
       <c r="G72" s="25"/>
     </row>
     <row r="73">
@@ -45589,47 +45340,29 @@
     </row>
     <row r="75">
       <c r="A75" s="5"/>
-      <c r="B75" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
       <c r="G75" s="25"/>
     </row>
     <row r="76">
       <c r="A76" s="5"/>
-      <c r="B76" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="B76" s="3"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F76" s="3"/>
       <c r="G76" s="25"/>
     </row>
     <row r="77">
       <c r="A77" s="5"/>
-      <c r="B77" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="B77" s="3"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F77" s="3"/>
       <c r="G77" s="25"/>
     </row>
     <row r="78">
@@ -45638,7 +45371,7 @@
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
+      <c r="F78" s="26"/>
     </row>
     <row r="79">
       <c r="A79" s="1">
@@ -45663,36 +45396,20 @@
     </row>
     <row r="80">
       <c r="A80" s="5"/>
-      <c r="B80" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
       <c r="G80" s="25"/>
     </row>
     <row r="81">
       <c r="A81" s="5"/>
-      <c r="B81" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
       <c r="G81" s="25"/>
     </row>
     <row r="82">
@@ -45726,21 +45443,11 @@
     </row>
     <row r="84">
       <c r="A84" s="5"/>
-      <c r="B84" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
       <c r="G84" s="25"/>
     </row>
     <row r="85">
@@ -45768,74 +45475,38 @@
     </row>
     <row r="87">
       <c r="A87" s="5"/>
-      <c r="B87" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
       <c r="G87" s="25"/>
     </row>
     <row r="88">
       <c r="A88" s="5"/>
-      <c r="B88" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
       <c r="G88" s="25"/>
     </row>
     <row r="89">
       <c r="A89" s="5"/>
-      <c r="B89" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
       <c r="G89" s="25"/>
     </row>
     <row r="90">
       <c r="A90" s="5"/>
-      <c r="B90" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="B90" s="3"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
       <c r="G90" s="25"/>
     </row>
     <row r="91">
@@ -45869,55 +45540,29 @@
     </row>
     <row r="93">
       <c r="A93" s="5"/>
-      <c r="B93" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
       <c r="G93" s="25"/>
     </row>
     <row r="94">
       <c r="A94" s="5"/>
-      <c r="B94" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
       <c r="G94" s="25"/>
     </row>
     <row r="95">
       <c r="A95" s="5"/>
-      <c r="B95" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
       <c r="G95" s="25"/>
     </row>
     <row r="96">
@@ -45949,19 +45594,11 @@
     </row>
     <row r="98">
       <c r="A98" s="5"/>
-      <c r="B98" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
       <c r="G98" s="25"/>
     </row>
     <row r="99">
@@ -45995,40 +45632,20 @@
     </row>
     <row r="101">
       <c r="A101" s="5"/>
-      <c r="B101" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
       <c r="G101" s="25"/>
     </row>
     <row r="102">
       <c r="A102" s="5"/>
-      <c r="B102" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
       <c r="G102" s="25"/>
     </row>
     <row r="103">
@@ -46062,53 +45679,29 @@
     </row>
     <row r="105">
       <c r="A105" s="5"/>
-      <c r="B105" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
       <c r="G105" s="25"/>
     </row>
     <row r="106">
       <c r="A106" s="5"/>
-      <c r="B106" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
       <c r="D106" s="6"/>
-      <c r="E106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
       <c r="G106" s="25"/>
     </row>
     <row r="107">
       <c r="A107" s="5"/>
-      <c r="B107" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
       <c r="G107" s="25"/>
     </row>
     <row r="108">
@@ -46142,36 +45735,20 @@
     </row>
     <row r="110">
       <c r="A110" s="5"/>
-      <c r="B110" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
       <c r="G110" s="25"/>
     </row>
     <row r="111">
       <c r="A111" s="5"/>
-      <c r="B111" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="B111" s="3"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
       <c r="G111" s="25"/>
     </row>
     <row r="112">
@@ -46205,51 +45782,29 @@
     </row>
     <row r="114">
       <c r="A114" s="5"/>
-      <c r="B114" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
       <c r="G114" s="25"/>
     </row>
     <row r="115">
       <c r="A115" s="5"/>
-      <c r="B115" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F115" s="3"/>
       <c r="G115" s="25"/>
     </row>
     <row r="116">
       <c r="A116" s="5"/>
-      <c r="B116" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
-      <c r="F116" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F116" s="3"/>
       <c r="G116" s="25"/>
     </row>
     <row r="117">
@@ -46283,36 +45838,20 @@
     </row>
     <row r="119">
       <c r="A119" s="5"/>
-      <c r="B119" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="B119" s="3"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
       <c r="G119" s="25"/>
     </row>
     <row r="120">
       <c r="A120" s="5"/>
-      <c r="B120" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
       <c r="G120" s="25"/>
     </row>
     <row r="121">
@@ -46346,21 +45885,11 @@
     </row>
     <row r="123">
       <c r="A123" s="5"/>
-      <c r="B123" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
       <c r="G123" s="25"/>
     </row>
     <row r="124">
@@ -46392,38 +45921,20 @@
     </row>
     <row r="126">
       <c r="A126" s="5"/>
-      <c r="B126" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
       <c r="G126" s="25"/>
     </row>
     <row r="127">
       <c r="A127" s="5"/>
-      <c r="B127" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
       <c r="G127" s="25"/>
     </row>
     <row r="128">
@@ -46457,53 +45968,29 @@
     </row>
     <row r="130">
       <c r="A130" s="5"/>
-      <c r="B130" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
       <c r="G130" s="25"/>
     </row>
     <row r="131">
       <c r="A131" s="5"/>
-      <c r="B131" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
       <c r="G131" s="25"/>
     </row>
     <row r="132">
       <c r="A132" s="5"/>
-      <c r="B132" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
       <c r="G132" s="25"/>
     </row>
     <row r="133">
@@ -46531,17 +46018,11 @@
     </row>
     <row r="135">
       <c r="A135" s="5"/>
-      <c r="B135" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="B135" s="3"/>
       <c r="C135" s="6"/>
-      <c r="D135" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="D135" s="3"/>
       <c r="E135" s="6"/>
-      <c r="F135" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="F135" s="3"/>
       <c r="G135" s="25"/>
     </row>
     <row r="136">
@@ -46575,55 +46056,29 @@
     </row>
     <row r="138">
       <c r="A138" s="5"/>
-      <c r="B138" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="B138" s="3"/>
       <c r="C138" s="6"/>
-      <c r="D138" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
       <c r="G138" s="25"/>
     </row>
     <row r="139">
       <c r="A139" s="5"/>
-      <c r="B139" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
       <c r="G139" s="25"/>
     </row>
     <row r="140">
       <c r="A140" s="5"/>
-      <c r="B140" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="B140" s="3"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
       <c r="G140" s="25"/>
     </row>
     <row r="141">
@@ -46655,34 +46110,20 @@
     </row>
     <row r="143">
       <c r="A143" s="5"/>
-      <c r="B143" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
       <c r="G143" s="25"/>
     </row>
     <row r="144">
       <c r="A144" s="5"/>
-      <c r="B144" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="B144" s="3"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
       <c r="G144" s="25"/>
     </row>
     <row r="145">
@@ -46714,38 +46155,20 @@
     </row>
     <row r="147">
       <c r="A147" s="5"/>
-      <c r="B147" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
       <c r="G147" s="25"/>
     </row>
     <row r="148">
       <c r="A148" s="5"/>
-      <c r="B148" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
       <c r="G148" s="25"/>
     </row>
     <row r="149">
@@ -46777,40 +46200,20 @@
     </row>
     <row r="151">
       <c r="A151" s="5"/>
-      <c r="B151" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
       <c r="G151" s="25"/>
     </row>
     <row r="152">
       <c r="A152" s="5"/>
-      <c r="B152" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
       <c r="G152" s="25"/>
     </row>
     <row r="153">
@@ -46840,66 +46243,38 @@
     </row>
     <row r="155">
       <c r="A155" s="5"/>
-      <c r="B155" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="B155" s="3"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
-      <c r="F155" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F155" s="3"/>
       <c r="G155" s="25"/>
     </row>
     <row r="156">
       <c r="A156" s="5"/>
-      <c r="B156" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="B156" s="3"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
-      <c r="F156" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F156" s="3"/>
       <c r="G156" s="25"/>
     </row>
     <row r="157">
       <c r="A157" s="5"/>
-      <c r="B157" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
       <c r="G157" s="25"/>
     </row>
     <row r="158">
       <c r="A158" s="5"/>
-      <c r="B158" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
       <c r="G158" s="25"/>
     </row>
     <row r="159">
@@ -46929,72 +46304,38 @@
     </row>
     <row r="161">
       <c r="A161" s="5"/>
-      <c r="B161" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
       <c r="D161" s="6"/>
-      <c r="E161" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
       <c r="G161" s="25"/>
     </row>
     <row r="162">
       <c r="A162" s="5"/>
-      <c r="B162" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="B162" s="3"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
       <c r="G162" s="25"/>
     </row>
     <row r="163">
       <c r="A163" s="5"/>
-      <c r="B163" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
       <c r="G163" s="25"/>
     </row>
     <row r="164">
       <c r="A164" s="5"/>
-      <c r="B164" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
       <c r="G164" s="25"/>
     </row>
     <row r="165">
@@ -47028,97 +46369,47 @@
     </row>
     <row r="167">
       <c r="A167" s="5"/>
-      <c r="B167" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
       <c r="G167" s="25"/>
     </row>
     <row r="168">
       <c r="A168" s="5"/>
-      <c r="B168" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
       <c r="G168" s="25"/>
     </row>
     <row r="169">
       <c r="A169" s="5"/>
-      <c r="B169" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
       <c r="G169" s="25"/>
     </row>
     <row r="170">
       <c r="A170" s="5"/>
-      <c r="B170" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
       <c r="G170" s="25"/>
     </row>
     <row r="171">
       <c r="A171" s="5"/>
-      <c r="B171" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
       <c r="G171" s="25"/>
     </row>
     <row r="172">
@@ -47152,45 +46443,29 @@
     </row>
     <row r="174">
       <c r="A174" s="5"/>
-      <c r="B174" s="3" t="s">
-        <v>203</v>
-      </c>
+      <c r="B174" s="3"/>
       <c r="C174" s="6"/>
-      <c r="D174" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
       <c r="G174" s="25"/>
     </row>
     <row r="175">
       <c r="A175" s="5"/>
-      <c r="B175" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="B175" s="3"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
-      <c r="F175" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F175" s="3"/>
       <c r="G175" s="25"/>
     </row>
     <row r="176">
       <c r="A176" s="5"/>
-      <c r="B176" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="B176" s="3"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
-      <c r="F176" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F176" s="3"/>
       <c r="G176" s="25"/>
     </row>
     <row r="177">
@@ -47224,57 +46499,29 @@
     </row>
     <row r="179">
       <c r="A179" s="5"/>
-      <c r="B179" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
       <c r="G179" s="25"/>
     </row>
     <row r="180">
       <c r="A180" s="5"/>
-      <c r="B180" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
       <c r="G180" s="25"/>
     </row>
     <row r="181">
       <c r="A181" s="5"/>
-      <c r="B181" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>212</v>
-      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
       <c r="D181" s="6"/>
-      <c r="E181" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
       <c r="G181" s="25"/>
     </row>
     <row r="182">
@@ -47308,134 +46555,74 @@
     </row>
     <row r="184">
       <c r="A184" s="5"/>
-      <c r="B184" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
       <c r="G184" s="25"/>
     </row>
     <row r="185">
       <c r="A185" s="5"/>
-      <c r="B185" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
-      <c r="F185" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F185" s="3"/>
       <c r="G185" s="25"/>
     </row>
     <row r="186">
       <c r="A186" s="5"/>
-      <c r="B186" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
       <c r="D186" s="6"/>
-      <c r="E186" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
       <c r="G186" s="25"/>
     </row>
     <row r="187">
       <c r="A187" s="5"/>
-      <c r="B187" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
       <c r="G187" s="25"/>
     </row>
     <row r="188">
       <c r="A188" s="5"/>
-      <c r="B188" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
       <c r="D188" s="6"/>
-      <c r="E188" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
       <c r="G188" s="25"/>
     </row>
     <row r="189">
       <c r="A189" s="5"/>
-      <c r="B189" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
       <c r="D189" s="6"/>
-      <c r="E189" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
       <c r="G189" s="25"/>
     </row>
     <row r="190">
       <c r="A190" s="5"/>
-      <c r="B190" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
-      <c r="F190" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F190" s="3"/>
       <c r="G190" s="25"/>
     </row>
     <row r="191">
       <c r="A191" s="5"/>
-      <c r="B191" s="3" t="s">
-        <v>222</v>
-      </c>
+      <c r="B191" s="3"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
-      <c r="F191" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F191" s="3"/>
       <c r="G191" s="25"/>
     </row>
     <row r="192">
@@ -47450,7 +46637,7 @@
       <c r="A193" s="1">
         <v>47.0</v>
       </c>
-      <c r="B193" s="26" t="s">
+      <c r="B193" s="27" t="s">
         <v>228</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -47468,23 +46655,15 @@
     </row>
     <row r="194">
       <c r="A194" s="5"/>
-      <c r="B194" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="B194" s="27"/>
+      <c r="C194" s="1"/>
       <c r="D194" s="5"/>
-      <c r="E194" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F194" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="5"/>
-      <c r="B195" s="27"/>
+      <c r="B195" s="28"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -47494,7 +46673,7 @@
       <c r="A196" s="1">
         <v>48.0</v>
       </c>
-      <c r="B196" s="26" t="s">
+      <c r="B196" s="27" t="s">
         <v>235</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -47512,39 +46691,23 @@
     </row>
     <row r="197">
       <c r="A197" s="5"/>
-      <c r="B197" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B197" s="27"/>
+      <c r="C197" s="1"/>
       <c r="D197" s="5"/>
-      <c r="E197" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F197" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="5"/>
-      <c r="B198" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B198" s="27"/>
+      <c r="C198" s="1"/>
       <c r="D198" s="5"/>
-      <c r="E198" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F198" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="5"/>
-      <c r="B199" s="27"/>
+      <c r="B199" s="28"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -47554,7 +46717,7 @@
       <c r="A200" s="1">
         <v>49.0</v>
       </c>
-      <c r="B200" s="26" t="s">
+      <c r="B200" s="27" t="s">
         <v>242</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -47572,7 +46735,7 @@
     </row>
     <row r="201">
       <c r="A201" s="5"/>
-      <c r="B201" s="27"/>
+      <c r="B201" s="28"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -47582,7 +46745,7 @@
       <c r="A202" s="1">
         <v>50.0</v>
       </c>
-      <c r="B202" s="26" t="s">
+      <c r="B202" s="27" t="s">
         <v>244</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -47600,55 +46763,31 @@
     </row>
     <row r="203">
       <c r="A203" s="5"/>
-      <c r="B203" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B203" s="27"/>
+      <c r="C203" s="1"/>
       <c r="D203" s="5"/>
-      <c r="E203" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F203" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="5"/>
-      <c r="B204" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B204" s="27"/>
+      <c r="C204" s="1"/>
       <c r="D204" s="5"/>
-      <c r="E204" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F204" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="5"/>
-      <c r="B205" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B205" s="27"/>
+      <c r="C205" s="1"/>
       <c r="D205" s="5"/>
-      <c r="E205" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F205" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
     </row>
     <row r="206">
       <c r="A206" s="5"/>
-      <c r="B206" s="26"/>
+      <c r="B206" s="27"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -47658,7 +46797,7 @@
       <c r="A207" s="1">
         <v>51.0</v>
       </c>
-      <c r="B207" s="26" t="s">
+      <c r="B207" s="27" t="s">
         <v>249</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -47676,39 +46815,23 @@
     </row>
     <row r="208">
       <c r="A208" s="5"/>
-      <c r="B208" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B208" s="27"/>
+      <c r="C208" s="1"/>
       <c r="D208" s="5"/>
-      <c r="E208" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F208" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
     </row>
     <row r="209">
       <c r="A209" s="5"/>
-      <c r="B209" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B209" s="27"/>
+      <c r="C209" s="1"/>
       <c r="D209" s="5"/>
-      <c r="E209" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F209" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
     </row>
     <row r="210">
       <c r="A210" s="5"/>
-      <c r="B210" s="27"/>
+      <c r="B210" s="28"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -47718,7 +46841,7 @@
       <c r="A211" s="1">
         <v>52.0</v>
       </c>
-      <c r="B211" s="26" t="s">
+      <c r="B211" s="27" t="s">
         <v>256</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -47736,23 +46859,15 @@
     </row>
     <row r="212">
       <c r="A212" s="5"/>
-      <c r="B212" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B212" s="27"/>
+      <c r="C212" s="1"/>
       <c r="D212" s="5"/>
-      <c r="E212" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F212" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
     </row>
     <row r="213">
       <c r="A213" s="5"/>
-      <c r="B213" s="27"/>
+      <c r="B213" s="28"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -47762,7 +46877,7 @@
       <c r="A214" s="1">
         <v>53.0</v>
       </c>
-      <c r="B214" s="26" t="s">
+      <c r="B214" s="27" t="s">
         <v>260</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -47780,55 +46895,31 @@
     </row>
     <row r="215">
       <c r="A215" s="5"/>
-      <c r="B215" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="B215" s="27"/>
+      <c r="C215" s="1"/>
       <c r="D215" s="5"/>
-      <c r="E215" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F215" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
     </row>
     <row r="216">
       <c r="A216" s="5"/>
-      <c r="B216" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="B216" s="27"/>
+      <c r="C216" s="1"/>
       <c r="D216" s="5"/>
-      <c r="E216" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F216" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
     </row>
     <row r="217">
       <c r="A217" s="5"/>
-      <c r="B217" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B217" s="27"/>
+      <c r="C217" s="1"/>
       <c r="D217" s="5"/>
-      <c r="E217" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F217" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
     </row>
     <row r="218">
       <c r="A218" s="5"/>
-      <c r="B218" s="27"/>
+      <c r="B218" s="28"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -47838,7 +46929,7 @@
       <c r="A219" s="1">
         <v>54.0</v>
       </c>
-      <c r="B219" s="26" t="s">
+      <c r="B219" s="27" t="s">
         <v>265</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -47854,7 +46945,7 @@
     </row>
     <row r="220">
       <c r="A220" s="5"/>
-      <c r="B220" s="27"/>
+      <c r="B220" s="28"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -47864,7 +46955,7 @@
       <c r="A221" s="1">
         <v>55.0</v>
       </c>
-      <c r="B221" s="26" t="s">
+      <c r="B221" s="27" t="s">
         <v>266</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -47882,39 +46973,23 @@
     </row>
     <row r="222">
       <c r="A222" s="5"/>
-      <c r="B222" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="B222" s="27"/>
+      <c r="C222" s="1"/>
       <c r="D222" s="5"/>
-      <c r="E222" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F222" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
     </row>
     <row r="223">
       <c r="A223" s="5"/>
-      <c r="B223" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B223" s="27"/>
+      <c r="C223" s="1"/>
       <c r="D223" s="5"/>
-      <c r="E223" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F223" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
     </row>
     <row r="224">
       <c r="A224" s="5"/>
-      <c r="B224" s="27"/>
+      <c r="B224" s="28"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -47924,7 +46999,7 @@
       <c r="A225" s="1">
         <v>56.0</v>
       </c>
-      <c r="B225" s="26" t="s">
+      <c r="B225" s="27" t="s">
         <v>271</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -47942,25 +47017,17 @@
     </row>
     <row r="226">
       <c r="A226" s="5"/>
-      <c r="B226" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="B226" s="27"/>
+      <c r="C226" s="1"/>
       <c r="D226" s="5"/>
-      <c r="E226" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F226" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
     </row>
     <row r="227">
       <c r="A227" s="1">
         <v>57.0</v>
       </c>
-      <c r="B227" s="26" t="s">
+      <c r="B227" s="27" t="s">
         <v>276</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -47978,25 +47045,17 @@
     </row>
     <row r="228">
       <c r="A228" s="1"/>
-      <c r="B228" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="B228" s="27"/>
+      <c r="C228" s="1"/>
       <c r="D228" s="5"/>
-      <c r="E228" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F228" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
     </row>
     <row r="229">
       <c r="A229" s="1">
         <v>58.0</v>
       </c>
-      <c r="B229" s="26" t="s">
+      <c r="B229" s="27" t="s">
         <v>279</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -48014,27 +47073,17 @@
     </row>
     <row r="230">
       <c r="A230" s="5"/>
-      <c r="B230" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F230" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="B230" s="27"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
     </row>
     <row r="231">
       <c r="A231" s="1">
         <v>59.0</v>
       </c>
-      <c r="B231" s="26" t="s">
+      <c r="B231" s="27" t="s">
         <v>283</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -48052,25 +47101,17 @@
     </row>
     <row r="232">
       <c r="A232" s="5"/>
-      <c r="B232" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="B232" s="27"/>
+      <c r="C232" s="1"/>
       <c r="D232" s="5"/>
-      <c r="E232" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F232" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
     </row>
     <row r="233">
       <c r="A233" s="1">
         <v>60.0</v>
       </c>
-      <c r="B233" s="26" t="s">
+      <c r="B233" s="27" t="s">
         <v>286</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -48088,39 +47129,25 @@
     </row>
     <row r="234">
       <c r="A234" s="5"/>
-      <c r="B234" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="B234" s="27"/>
+      <c r="C234" s="1"/>
       <c r="D234" s="5"/>
-      <c r="E234" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F234" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
     </row>
     <row r="235">
       <c r="A235" s="5"/>
-      <c r="B235" s="26" t="s">
-        <v>289</v>
-      </c>
+      <c r="B235" s="27"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
-      <c r="E235" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F235" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
     </row>
     <row r="236">
       <c r="A236" s="1">
         <v>61.0</v>
       </c>
-      <c r="B236" s="26" t="s">
+      <c r="B236" s="27" t="s">
         <v>290</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -48138,43 +47165,25 @@
     </row>
     <row r="237">
       <c r="A237" s="5"/>
-      <c r="B237" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B237" s="27"/>
+      <c r="C237" s="1"/>
       <c r="D237" s="5"/>
-      <c r="E237" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F237" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
     </row>
     <row r="238">
       <c r="A238" s="5"/>
-      <c r="B238" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F238" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B238" s="27"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
     </row>
     <row r="239">
       <c r="A239" s="1">
         <v>62.0</v>
       </c>
-      <c r="B239" s="26" t="s">
+      <c r="B239" s="27" t="s">
         <v>293</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -48194,7 +47203,7 @@
       <c r="A240" s="1">
         <v>63.0</v>
       </c>
-      <c r="B240" s="26" t="s">
+      <c r="B240" s="27" t="s">
         <v>294</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -48212,61 +47221,33 @@
     </row>
     <row r="241">
       <c r="A241" s="5"/>
-      <c r="B241" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F241" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B241" s="27"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
     </row>
     <row r="242">
       <c r="A242" s="5"/>
-      <c r="B242" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F242" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B242" s="27"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
     </row>
     <row r="243">
       <c r="A243" s="5"/>
-      <c r="B243" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="B243" s="27"/>
+      <c r="C243" s="1"/>
       <c r="D243" s="5"/>
-      <c r="E243" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F243" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
     </row>
     <row r="244">
       <c r="A244" s="1">
         <v>64.0</v>
       </c>
-      <c r="B244" s="26" t="s">
+      <c r="B244" s="27" t="s">
         <v>299</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -48284,61 +47265,33 @@
     </row>
     <row r="245">
       <c r="A245" s="5"/>
-      <c r="B245" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F245" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="B245" s="27"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
     </row>
     <row r="246">
       <c r="A246" s="5"/>
-      <c r="B246" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F246" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="B246" s="27"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
     </row>
     <row r="247">
       <c r="A247" s="5"/>
-      <c r="B247" s="26" t="s">
-        <v>305</v>
-      </c>
+      <c r="B247" s="27"/>
       <c r="C247" s="5"/>
-      <c r="D247" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F247" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
     </row>
     <row r="248">
       <c r="A248" s="1">
         <v>65.0</v>
       </c>
-      <c r="B248" s="26" t="s">
+      <c r="B248" s="27" t="s">
         <v>306</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -48356,27 +47309,17 @@
     </row>
     <row r="249">
       <c r="A249" s="5"/>
-      <c r="B249" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F249" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B249" s="27"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
     </row>
     <row r="250">
       <c r="A250" s="1">
         <v>66.0</v>
       </c>
-      <c r="B250" s="26" t="s">
+      <c r="B250" s="27" t="s">
         <v>309</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -48394,43 +47337,25 @@
     </row>
     <row r="251">
       <c r="A251" s="5"/>
-      <c r="B251" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F251" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="B251" s="27"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
     </row>
     <row r="252">
       <c r="A252" s="5"/>
-      <c r="B252" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>314</v>
-      </c>
+      <c r="B252" s="27"/>
+      <c r="C252" s="1"/>
       <c r="D252" s="5"/>
-      <c r="E252" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F252" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
     </row>
     <row r="253">
       <c r="A253" s="1">
         <v>67.0</v>
       </c>
-      <c r="B253" s="26" t="s">
+      <c r="B253" s="27" t="s">
         <v>315</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -48450,7 +47375,7 @@
       <c r="A254" s="1">
         <v>68.0</v>
       </c>
-      <c r="B254" s="26" t="s">
+      <c r="B254" s="27" t="s">
         <v>317</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -48468,65 +47393,41 @@
     </row>
     <row r="255">
       <c r="A255" s="5"/>
-      <c r="B255" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="B255" s="27"/>
+      <c r="C255" s="1"/>
       <c r="D255" s="5"/>
-      <c r="E255" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F255" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
     </row>
     <row r="256">
       <c r="A256" s="5"/>
-      <c r="B256" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B256" s="27"/>
+      <c r="C256" s="1"/>
       <c r="D256" s="5"/>
-      <c r="E256" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F256" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
     </row>
     <row r="257">
       <c r="A257" s="5"/>
-      <c r="B257" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B257" s="27"/>
+      <c r="C257" s="1"/>
       <c r="D257" s="5"/>
-      <c r="E257" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F257" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
     </row>
     <row r="258">
       <c r="A258" s="1"/>
-      <c r="B258" s="26"/>
+      <c r="B258" s="27"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
-      <c r="F258" s="28"/>
+      <c r="F258" s="1"/>
     </row>
     <row r="259">
       <c r="A259" s="1">
         <v>69.0</v>
       </c>
-      <c r="B259" s="26" t="s">
+      <c r="B259" s="27" t="s">
         <v>323</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -48544,23 +47445,15 @@
     </row>
     <row r="260">
       <c r="A260" s="5"/>
-      <c r="B260" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="B260" s="27"/>
+      <c r="C260" s="1"/>
       <c r="D260" s="5"/>
-      <c r="E260" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F260" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
     </row>
     <row r="261">
       <c r="A261" s="5"/>
-      <c r="B261" s="27"/>
+      <c r="B261" s="28"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -48570,7 +47463,7 @@
       <c r="A262" s="1">
         <v>70.0</v>
       </c>
-      <c r="B262" s="26" t="s">
+      <c r="B262" s="27" t="s">
         <v>325</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -48588,69 +47481,39 @@
     </row>
     <row r="263">
       <c r="A263" s="5"/>
-      <c r="B263" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="B263" s="27"/>
+      <c r="C263" s="1"/>
       <c r="D263" s="5"/>
-      <c r="E263" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F263" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
     </row>
     <row r="264">
       <c r="A264" s="5"/>
-      <c r="B264" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B264" s="27"/>
+      <c r="C264" s="1"/>
       <c r="D264" s="5"/>
-      <c r="E264" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F264" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
     </row>
     <row r="265">
       <c r="A265" s="5"/>
-      <c r="B265" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B265" s="27"/>
+      <c r="C265" s="1"/>
       <c r="D265" s="5"/>
-      <c r="E265" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F265" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
     </row>
     <row r="266">
       <c r="A266" s="5"/>
-      <c r="B266" s="26" t="s">
-        <v>330</v>
-      </c>
+      <c r="B266" s="27"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
-      <c r="E266" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F266" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
     </row>
     <row r="267">
       <c r="A267" s="5"/>
-      <c r="B267" s="27"/>
+      <c r="B267" s="28"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -48660,7 +47523,7 @@
       <c r="A268" s="1">
         <v>71.0</v>
       </c>
-      <c r="B268" s="26" t="s">
+      <c r="B268" s="27" t="s">
         <v>332</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -48678,51 +47541,31 @@
     </row>
     <row r="269">
       <c r="A269" s="5"/>
-      <c r="B269" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="B269" s="27"/>
+      <c r="C269" s="1"/>
       <c r="D269" s="5"/>
-      <c r="E269" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F269" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
     </row>
     <row r="270">
       <c r="A270" s="5"/>
-      <c r="B270" s="26" t="s">
-        <v>335</v>
-      </c>
+      <c r="B270" s="27"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
-      <c r="E270" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F270" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
     </row>
     <row r="271">
       <c r="A271" s="5"/>
-      <c r="B271" s="26" t="s">
-        <v>336</v>
-      </c>
+      <c r="B271" s="27"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
-      <c r="E271" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F271" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
     </row>
     <row r="272">
       <c r="A272" s="5"/>
-      <c r="B272" s="27"/>
+      <c r="B272" s="28"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -48732,7 +47575,7 @@
       <c r="A273" s="1">
         <v>72.0</v>
       </c>
-      <c r="B273" s="26" t="s">
+      <c r="B273" s="27" t="s">
         <v>337</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -48750,53 +47593,31 @@
     </row>
     <row r="274">
       <c r="A274" s="5"/>
-      <c r="B274" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="B274" s="27"/>
+      <c r="C274" s="1"/>
       <c r="D274" s="5"/>
-      <c r="E274" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F274" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
     </row>
     <row r="275">
       <c r="A275" s="5"/>
-      <c r="B275" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B275" s="27"/>
+      <c r="C275" s="1"/>
       <c r="D275" s="5"/>
-      <c r="E275" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F275" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
     </row>
     <row r="276">
       <c r="A276" s="5"/>
-      <c r="B276" s="26" t="s">
-        <v>340</v>
-      </c>
+      <c r="B276" s="27"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
-      <c r="E276" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F276" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
     </row>
     <row r="277">
       <c r="A277" s="5"/>
-      <c r="B277" s="27"/>
+      <c r="B277" s="28"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -48806,7 +47627,7 @@
       <c r="A278" s="1">
         <v>73.0</v>
       </c>
-      <c r="B278" s="26" t="s">
+      <c r="B278" s="27" t="s">
         <v>342</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -48824,39 +47645,23 @@
     </row>
     <row r="279">
       <c r="A279" s="5"/>
-      <c r="B279" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="B279" s="27"/>
+      <c r="C279" s="1"/>
       <c r="D279" s="5"/>
-      <c r="E279" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F279" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
     </row>
     <row r="280">
       <c r="A280" s="5"/>
-      <c r="B280" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B280" s="27"/>
+      <c r="C280" s="1"/>
       <c r="D280" s="5"/>
-      <c r="E280" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F280" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
     </row>
     <row r="281">
       <c r="A281" s="5"/>
-      <c r="B281" s="27"/>
+      <c r="B281" s="28"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -48866,7 +47671,7 @@
       <c r="A282" s="1">
         <v>74.0</v>
       </c>
-      <c r="B282" s="26" t="s">
+      <c r="B282" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -48884,73 +47689,39 @@
     </row>
     <row r="283">
       <c r="A283" s="5"/>
-      <c r="B283" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F283" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="B283" s="27"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
     </row>
     <row r="284">
       <c r="A284" s="5"/>
-      <c r="B284" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B284" s="27"/>
+      <c r="C284" s="1"/>
       <c r="D284" s="5"/>
-      <c r="E284" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F284" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
     </row>
     <row r="285">
       <c r="A285" s="5"/>
-      <c r="B285" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B285" s="27"/>
+      <c r="C285" s="1"/>
       <c r="D285" s="5"/>
-      <c r="E285" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F285" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
     </row>
     <row r="286">
       <c r="A286" s="5"/>
-      <c r="B286" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B286" s="27"/>
+      <c r="C286" s="1"/>
       <c r="D286" s="5"/>
-      <c r="E286" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F286" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
     </row>
     <row r="287">
       <c r="A287" s="5"/>
-      <c r="B287" s="27"/>
+      <c r="B287" s="28"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -48960,7 +47731,7 @@
       <c r="A288" s="1">
         <v>75.0</v>
       </c>
-      <c r="B288" s="26" t="s">
+      <c r="B288" s="27" t="s">
         <v>353</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -48978,55 +47749,31 @@
     </row>
     <row r="289">
       <c r="A289" s="5"/>
-      <c r="B289" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B289" s="27"/>
+      <c r="C289" s="1"/>
       <c r="D289" s="5"/>
-      <c r="E289" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F289" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
     </row>
     <row r="290">
       <c r="A290" s="5"/>
-      <c r="B290" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B290" s="27"/>
+      <c r="C290" s="1"/>
       <c r="D290" s="5"/>
-      <c r="E290" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F290" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
     </row>
     <row r="291">
       <c r="A291" s="5"/>
-      <c r="B291" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B291" s="27"/>
+      <c r="C291" s="1"/>
       <c r="D291" s="5"/>
-      <c r="E291" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F291" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
     </row>
     <row r="292">
       <c r="A292" s="5"/>
-      <c r="B292" s="27"/>
+      <c r="B292" s="28"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -49036,7 +47783,7 @@
       <c r="A293" s="1">
         <v>76.0</v>
       </c>
-      <c r="B293" s="26" t="s">
+      <c r="B293" s="27" t="s">
         <v>358</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -49054,39 +47801,23 @@
     </row>
     <row r="294">
       <c r="A294" s="5"/>
-      <c r="B294" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>360</v>
-      </c>
+      <c r="B294" s="27"/>
+      <c r="C294" s="1"/>
       <c r="D294" s="5"/>
-      <c r="E294" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F294" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
     </row>
     <row r="295">
       <c r="A295" s="5"/>
-      <c r="B295" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B295" s="27"/>
+      <c r="C295" s="1"/>
       <c r="D295" s="5"/>
-      <c r="E295" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F295" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
     </row>
     <row r="296">
       <c r="A296" s="5"/>
-      <c r="B296" s="27"/>
+      <c r="B296" s="28"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -49096,7 +47827,7 @@
       <c r="A297" s="1">
         <v>77.0</v>
       </c>
-      <c r="B297" s="26" t="s">
+      <c r="B297" s="27" t="s">
         <v>362</v>
       </c>
       <c r="C297" s="1" t="s">
@@ -49114,57 +47845,31 @@
     </row>
     <row r="298">
       <c r="A298" s="5"/>
-      <c r="B298" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F298" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="B298" s="27"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
     </row>
     <row r="299">
       <c r="A299" s="5"/>
-      <c r="B299" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B299" s="27"/>
+      <c r="C299" s="1"/>
       <c r="D299" s="5"/>
-      <c r="E299" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F299" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
     </row>
     <row r="300">
       <c r="A300" s="5"/>
-      <c r="B300" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B300" s="27"/>
+      <c r="C300" s="1"/>
       <c r="D300" s="5"/>
-      <c r="E300" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F300" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
     </row>
     <row r="301">
       <c r="A301" s="5"/>
-      <c r="B301" s="27"/>
+      <c r="B301" s="28"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -49174,7 +47879,7 @@
       <c r="A302" s="1">
         <v>78.0</v>
       </c>
-      <c r="B302" s="26" t="s">
+      <c r="B302" s="27" t="s">
         <v>370</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -49192,43 +47897,23 @@
     </row>
     <row r="303">
       <c r="A303" s="5"/>
-      <c r="B303" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F303" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="B303" s="27"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
     </row>
     <row r="304">
       <c r="A304" s="5"/>
-      <c r="B304" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F304" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="B304" s="27"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
     </row>
     <row r="305">
       <c r="A305" s="5"/>
-      <c r="B305" s="27"/>
+      <c r="B305" s="28"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -49238,7 +47923,7 @@
       <c r="A306" s="1">
         <v>79.0</v>
       </c>
-      <c r="B306" s="26" t="s">
+      <c r="B306" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -49256,55 +47941,31 @@
     </row>
     <row r="307">
       <c r="A307" s="5"/>
-      <c r="B307" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>374</v>
-      </c>
+      <c r="B307" s="27"/>
+      <c r="C307" s="1"/>
       <c r="D307" s="5"/>
-      <c r="E307" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F307" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
     </row>
     <row r="308">
       <c r="A308" s="5"/>
-      <c r="B308" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="B308" s="27"/>
+      <c r="C308" s="1"/>
       <c r="D308" s="5"/>
-      <c r="E308" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F308" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
     </row>
     <row r="309">
       <c r="A309" s="5"/>
-      <c r="B309" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B309" s="27"/>
+      <c r="C309" s="1"/>
       <c r="D309" s="5"/>
-      <c r="E309" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F309" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
     </row>
     <row r="310">
       <c r="A310" s="5"/>
-      <c r="B310" s="27"/>
+      <c r="B310" s="28"/>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -49314,7 +47975,7 @@
       <c r="A311" s="1">
         <v>80.0</v>
       </c>
-      <c r="B311" s="26" t="s">
+      <c r="B311" s="27" t="s">
         <v>377</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -49332,51 +47993,31 @@
     </row>
     <row r="312">
       <c r="A312" s="5"/>
-      <c r="B312" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B312" s="27"/>
+      <c r="C312" s="1"/>
       <c r="D312" s="5"/>
-      <c r="E312" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F312" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
     </row>
     <row r="313">
       <c r="A313" s="5"/>
-      <c r="B313" s="26" t="s">
-        <v>379</v>
-      </c>
+      <c r="B313" s="27"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
-      <c r="E313" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F313" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
     </row>
     <row r="314">
       <c r="A314" s="5"/>
-      <c r="B314" s="26" t="s">
-        <v>380</v>
-      </c>
+      <c r="B314" s="27"/>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
-      <c r="E314" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F314" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
     </row>
     <row r="315">
       <c r="A315" s="5"/>
-      <c r="B315" s="27"/>
+      <c r="B315" s="28"/>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -49386,7 +48027,7 @@
       <c r="A316" s="1">
         <v>81.0</v>
       </c>
-      <c r="B316" s="26" t="s">
+      <c r="B316" s="27" t="s">
         <v>381</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -49404,37 +48045,23 @@
     </row>
     <row r="317">
       <c r="A317" s="5"/>
-      <c r="B317" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B317" s="27"/>
+      <c r="C317" s="1"/>
       <c r="D317" s="5"/>
-      <c r="E317" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F317" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
     </row>
     <row r="318">
       <c r="A318" s="5"/>
-      <c r="B318" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="B318" s="27"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
-      <c r="E318" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F318" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
     </row>
     <row r="319">
       <c r="A319" s="5"/>
-      <c r="B319" s="27"/>
+      <c r="B319" s="28"/>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -49444,7 +48071,7 @@
       <c r="A320" s="1">
         <v>82.0</v>
       </c>
-      <c r="B320" s="26" t="s">
+      <c r="B320" s="27" t="s">
         <v>385</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -49462,7 +48089,7 @@
     </row>
     <row r="321">
       <c r="A321" s="5"/>
-      <c r="B321" s="27"/>
+      <c r="B321" s="28"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -49472,7 +48099,7 @@
       <c r="A322" s="1">
         <v>83.0</v>
       </c>
-      <c r="B322" s="26" t="s">
+      <c r="B322" s="27" t="s">
         <v>387</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -49488,7 +48115,7 @@
     </row>
     <row r="323">
       <c r="A323" s="5"/>
-      <c r="B323" s="27"/>
+      <c r="B323" s="28"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -49498,7 +48125,7 @@
       <c r="A324" s="1">
         <v>84.0</v>
       </c>
-      <c r="B324" s="26" t="s">
+      <c r="B324" s="27" t="s">
         <v>389</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -49516,69 +48143,39 @@
     </row>
     <row r="325">
       <c r="A325" s="5"/>
-      <c r="B325" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F325" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="B325" s="27"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
     </row>
     <row r="326">
       <c r="A326" s="5"/>
-      <c r="B326" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="B326" s="27"/>
+      <c r="C326" s="1"/>
       <c r="D326" s="5"/>
-      <c r="E326" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F326" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
     </row>
     <row r="327">
       <c r="A327" s="5"/>
-      <c r="B327" s="26" t="s">
-        <v>393</v>
-      </c>
+      <c r="B327" s="27"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
-      <c r="E327" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F327" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
     </row>
     <row r="328">
       <c r="A328" s="5"/>
-      <c r="B328" s="26" t="s">
-        <v>394</v>
-      </c>
+      <c r="B328" s="27"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
-      <c r="E328" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F328" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
     </row>
     <row r="329">
       <c r="A329" s="5"/>
-      <c r="B329" s="27"/>
+      <c r="B329" s="28"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -49588,7 +48185,7 @@
       <c r="A330" s="1">
         <v>85.0</v>
       </c>
-      <c r="B330" s="26" t="s">
+      <c r="B330" s="27" t="s">
         <v>395</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -49606,41 +48203,23 @@
     </row>
     <row r="331">
       <c r="A331" s="5"/>
-      <c r="B331" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E331" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F331" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B331" s="27"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
     </row>
     <row r="332">
       <c r="A332" s="5"/>
-      <c r="B332" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="B332" s="27"/>
+      <c r="C332" s="1"/>
       <c r="D332" s="5"/>
-      <c r="E332" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F332" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
     </row>
     <row r="333">
       <c r="A333" s="5"/>
-      <c r="B333" s="27"/>
+      <c r="B333" s="28"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -49650,7 +48229,7 @@
       <c r="A334" s="1">
         <v>86.0</v>
       </c>
-      <c r="B334" s="26" t="s">
+      <c r="B334" s="27" t="s">
         <v>398</v>
       </c>
       <c r="C334" s="5"/>
@@ -49666,7 +48245,7 @@
     </row>
     <row r="335">
       <c r="A335" s="5"/>
-      <c r="B335" s="27"/>
+      <c r="B335" s="28"/>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -49676,7 +48255,7 @@
       <c r="A336" s="1">
         <v>87.0</v>
       </c>
-      <c r="B336" s="26" t="s">
+      <c r="B336" s="27" t="s">
         <v>399</v>
       </c>
       <c r="C336" s="1" t="s">
@@ -49694,7 +48273,7 @@
     </row>
     <row r="337">
       <c r="A337" s="5"/>
-      <c r="B337" s="27"/>
+      <c r="B337" s="28"/>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -49704,7 +48283,7 @@
       <c r="A338" s="1">
         <v>88.0</v>
       </c>
-      <c r="B338" s="26" t="s">
+      <c r="B338" s="27" t="s">
         <v>401</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -49722,7 +48301,7 @@
     </row>
     <row r="339">
       <c r="A339" s="5"/>
-      <c r="B339" s="27"/>
+      <c r="B339" s="28"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -49732,7 +48311,7 @@
       <c r="A340" s="1">
         <v>89.0</v>
       </c>
-      <c r="B340" s="26" t="s">
+      <c r="B340" s="27" t="s">
         <v>403</v>
       </c>
       <c r="C340" s="1" t="s">
@@ -49750,67 +48329,39 @@
     </row>
     <row r="341">
       <c r="A341" s="5"/>
-      <c r="B341" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="B341" s="27"/>
+      <c r="C341" s="1"/>
       <c r="D341" s="5"/>
-      <c r="E341" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F341" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
     </row>
     <row r="342">
       <c r="A342" s="1"/>
-      <c r="B342" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="B342" s="27"/>
+      <c r="C342" s="1"/>
       <c r="D342" s="1"/>
-      <c r="E342" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F342" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
     </row>
     <row r="343">
       <c r="A343" s="1"/>
-      <c r="B343" s="26" t="s">
-        <v>406</v>
-      </c>
+      <c r="B343" s="27"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
-      <c r="E343" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F343" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
     </row>
     <row r="344">
       <c r="A344" s="1"/>
-      <c r="B344" s="26" t="s">
-        <v>407</v>
-      </c>
+      <c r="B344" s="27"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
-      <c r="E344" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F344" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
     </row>
     <row r="345">
       <c r="A345" s="1"/>
-      <c r="B345" s="27"/>
+      <c r="B345" s="28"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -49820,7 +48371,7 @@
       <c r="A346" s="1">
         <v>90.0</v>
       </c>
-      <c r="B346" s="26" t="s">
+      <c r="B346" s="27" t="s">
         <v>408</v>
       </c>
       <c r="C346" s="1" t="s">
@@ -49838,57 +48389,33 @@
     </row>
     <row r="347">
       <c r="A347" s="5"/>
-      <c r="B347" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B347" s="27"/>
+      <c r="C347" s="1"/>
       <c r="D347" s="5"/>
-      <c r="E347" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F347" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
     </row>
     <row r="348">
       <c r="A348" s="5"/>
-      <c r="B348" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B348" s="27"/>
+      <c r="C348" s="1"/>
       <c r="D348" s="5"/>
-      <c r="E348" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F348" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
     </row>
     <row r="349">
       <c r="A349" s="1"/>
-      <c r="B349" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B349" s="27"/>
+      <c r="C349" s="1"/>
       <c r="D349" s="5"/>
-      <c r="E349" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F349" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
     </row>
     <row r="350">
       <c r="A350" s="1">
         <v>91.0</v>
       </c>
-      <c r="B350" s="26" t="s">
+      <c r="B350" s="27" t="s">
         <v>413</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -49906,39 +48433,25 @@
     </row>
     <row r="351">
       <c r="A351" s="5"/>
-      <c r="B351" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="B351" s="27"/>
+      <c r="C351" s="1"/>
       <c r="D351" s="5"/>
-      <c r="E351" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F351" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
     </row>
     <row r="352">
       <c r="A352" s="5"/>
-      <c r="B352" s="26" t="s">
-        <v>415</v>
-      </c>
+      <c r="B352" s="27"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
-      <c r="E352" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F352" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
     </row>
     <row r="353">
       <c r="A353" s="1">
         <v>92.0</v>
       </c>
-      <c r="B353" s="26" t="s">
+      <c r="B353" s="27" t="s">
         <v>416</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -49956,71 +48469,41 @@
     </row>
     <row r="354">
       <c r="A354" s="5"/>
-      <c r="B354" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B354" s="27"/>
+      <c r="C354" s="1"/>
       <c r="D354" s="5"/>
-      <c r="E354" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F354" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
     </row>
     <row r="355">
       <c r="A355" s="5"/>
-      <c r="B355" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>420</v>
-      </c>
+      <c r="B355" s="27"/>
+      <c r="C355" s="1"/>
       <c r="D355" s="5"/>
-      <c r="E355" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F355" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
     </row>
     <row r="356">
       <c r="A356" s="5"/>
-      <c r="B356" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="B356" s="27"/>
+      <c r="C356" s="1"/>
       <c r="D356" s="5"/>
-      <c r="E356" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F356" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
     </row>
     <row r="357">
       <c r="A357" s="5"/>
-      <c r="B357" s="26" t="s">
-        <v>422</v>
-      </c>
+      <c r="B357" s="27"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
-      <c r="E357" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F357" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
     </row>
     <row r="358">
       <c r="A358" s="1">
         <v>93.0</v>
       </c>
-      <c r="B358" s="26" t="s">
+      <c r="B358" s="27" t="s">
         <v>423</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -50040,7 +48523,7 @@
       <c r="A359" s="1">
         <v>94.0</v>
       </c>
-      <c r="B359" s="26" t="s">
+      <c r="B359" s="27" t="s">
         <v>424</v>
       </c>
       <c r="C359" s="1" t="s">
@@ -50060,7 +48543,7 @@
       <c r="A360" s="1">
         <v>95.0</v>
       </c>
-      <c r="B360" s="26" t="s">
+      <c r="B360" s="27" t="s">
         <v>426</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -50080,7 +48563,7 @@
       <c r="A361" s="1">
         <v>96.0</v>
       </c>
-      <c r="B361" s="26" t="s">
+      <c r="B361" s="27" t="s">
         <v>427</v>
       </c>
       <c r="C361" s="1" t="s">
@@ -50100,7 +48583,7 @@
       <c r="A362" s="1">
         <v>97.0</v>
       </c>
-      <c r="B362" s="26" t="s">
+      <c r="B362" s="27" t="s">
         <v>428</v>
       </c>
       <c r="C362" s="1" t="s">
@@ -50116,25 +48599,17 @@
     </row>
     <row r="363">
       <c r="A363" s="5"/>
-      <c r="B363" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B363" s="27"/>
+      <c r="C363" s="1"/>
       <c r="D363" s="5"/>
-      <c r="E363" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F363" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E363" s="1"/>
+      <c r="F363" s="1"/>
     </row>
     <row r="364">
       <c r="A364" s="1">
         <v>98.0</v>
       </c>
-      <c r="B364" s="26" t="s">
+      <c r="B364" s="27" t="s">
         <v>430</v>
       </c>
       <c r="C364" s="1" t="s">
@@ -50152,39 +48627,25 @@
     </row>
     <row r="365">
       <c r="A365" s="5"/>
-      <c r="B365" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>363</v>
-      </c>
+      <c r="B365" s="27"/>
+      <c r="C365" s="1"/>
       <c r="D365" s="5"/>
-      <c r="E365" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F365" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E365" s="1"/>
+      <c r="F365" s="1"/>
     </row>
     <row r="366">
       <c r="A366" s="5"/>
-      <c r="B366" s="26" t="s">
-        <v>432</v>
-      </c>
+      <c r="B366" s="27"/>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
-      <c r="E366" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F366" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E366" s="1"/>
+      <c r="F366" s="1"/>
     </row>
     <row r="367">
       <c r="A367" s="1">
         <v>99.0</v>
       </c>
-      <c r="B367" s="26" t="s">
+      <c r="B367" s="27" t="s">
         <v>433</v>
       </c>
       <c r="C367" s="1" t="s">
@@ -50202,53 +48663,33 @@
     </row>
     <row r="368">
       <c r="A368" s="5"/>
-      <c r="B368" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B368" s="27"/>
+      <c r="C368" s="1"/>
       <c r="D368" s="5"/>
-      <c r="E368" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F368" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
     </row>
     <row r="369">
       <c r="A369" s="5"/>
-      <c r="B369" s="26" t="s">
-        <v>436</v>
-      </c>
+      <c r="B369" s="27"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
-      <c r="E369" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F369" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E369" s="1"/>
+      <c r="F369" s="1"/>
     </row>
     <row r="370">
       <c r="A370" s="5"/>
-      <c r="B370" s="26" t="s">
-        <v>437</v>
-      </c>
+      <c r="B370" s="27"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
-      <c r="E370" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F370" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E370" s="1"/>
+      <c r="F370" s="1"/>
     </row>
     <row r="371">
       <c r="A371" s="1">
         <v>100.0</v>
       </c>
-      <c r="B371" s="26" t="s">
+      <c r="B371" s="27" t="s">
         <v>438</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -50266,25 +48707,17 @@
     </row>
     <row r="372">
       <c r="A372" s="5"/>
-      <c r="B372" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="B372" s="27"/>
+      <c r="C372" s="1"/>
       <c r="D372" s="5"/>
-      <c r="E372" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F372" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
     </row>
     <row r="373">
       <c r="A373" s="1">
         <v>101.0</v>
       </c>
-      <c r="B373" s="26" t="s">
+      <c r="B373" s="27" t="s">
         <v>440</v>
       </c>
       <c r="C373" s="1" t="s">
@@ -50302,25 +48735,17 @@
     </row>
     <row r="374">
       <c r="A374" s="5"/>
-      <c r="B374" s="26" t="s">
-        <v>442</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B374" s="27"/>
+      <c r="C374" s="1"/>
       <c r="D374" s="5"/>
-      <c r="E374" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F374" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
     </row>
     <row r="375">
       <c r="A375" s="1">
         <v>102.0</v>
       </c>
-      <c r="B375" s="26" t="s">
+      <c r="B375" s="27" t="s">
         <v>443</v>
       </c>
       <c r="C375" s="1" t="s">
@@ -50338,43 +48763,25 @@
     </row>
     <row r="376">
       <c r="A376" s="5"/>
-      <c r="B376" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="B376" s="27"/>
+      <c r="C376" s="1"/>
       <c r="D376" s="5"/>
-      <c r="E376" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F376" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
     </row>
     <row r="377">
       <c r="A377" s="5"/>
-      <c r="B377" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E377" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F377" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="B377" s="27"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="1"/>
     </row>
     <row r="378">
       <c r="A378" s="1">
         <v>103.0</v>
       </c>
-      <c r="B378" s="26" t="s">
+      <c r="B378" s="27" t="s">
         <v>447</v>
       </c>
       <c r="C378" s="1" t="s">
@@ -50392,33 +48799,19 @@
     </row>
     <row r="379">
       <c r="A379" s="5"/>
-      <c r="B379" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>449</v>
-      </c>
+      <c r="B379" s="27"/>
+      <c r="C379" s="1"/>
       <c r="D379" s="5"/>
-      <c r="E379" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F379" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
     </row>
     <row r="380">
       <c r="A380" s="5"/>
-      <c r="B380" s="26" t="s">
-        <v>450</v>
-      </c>
+      <c r="B380" s="27"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
-      <c r="E380" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F380" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="E380" s="1"/>
+      <c r="F380" s="1"/>
     </row>
     <row r="381">
       <c r="A381" s="6"/>
@@ -50433,13 +48826,13 @@
         <v>104.0</v>
       </c>
       <c r="B382" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="D382" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>23</v>
@@ -50451,21 +48844,11 @@
     </row>
     <row r="383">
       <c r="A383" s="5"/>
-      <c r="B383" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F383" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1"/>
+      <c r="F383" s="1"/>
       <c r="G383" s="12"/>
     </row>
     <row r="384">
@@ -50482,10 +48865,10 @@
         <v>105.0</v>
       </c>
       <c r="B385" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>66</v>
@@ -50501,10 +48884,10 @@
     <row r="386">
       <c r="A386" s="5"/>
       <c r="B386" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>66</v>
@@ -50531,7 +48914,7 @@
         <v>106.0</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>38</v>
@@ -50549,45 +48932,29 @@
     </row>
     <row r="389">
       <c r="A389" s="5"/>
-      <c r="B389" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>463</v>
-      </c>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
       <c r="D389" s="5"/>
-      <c r="E389" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F389" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E389" s="1"/>
+      <c r="F389" s="1"/>
       <c r="G389" s="12"/>
     </row>
     <row r="390">
       <c r="A390" s="5"/>
-      <c r="B390" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="B390" s="1"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
-      <c r="F390" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F390" s="1"/>
       <c r="G390" s="12"/>
     </row>
     <row r="391">
       <c r="A391" s="5"/>
-      <c r="B391" s="1" t="s">
-        <v>465</v>
-      </c>
+      <c r="B391" s="1"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
-      <c r="F391" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="F391" s="1"/>
       <c r="G391" s="12"/>
     </row>
     <row r="392">
@@ -50604,13 +48971,13 @@
         <v>107.0</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>14</v>
@@ -50622,21 +48989,11 @@
     </row>
     <row r="394">
       <c r="A394" s="5"/>
-      <c r="B394" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D394" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E394" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F394" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+      <c r="F394" s="1"/>
       <c r="G394" s="12"/>
     </row>
     <row r="395">
@@ -50653,7 +49010,7 @@
         <v>108.0</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>21</v>
@@ -50683,7 +49040,7 @@
         <v>109.0</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>84</v>
@@ -50701,21 +49058,11 @@
     </row>
     <row r="399">
       <c r="A399" s="5"/>
-      <c r="B399" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E399" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F399" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
+      <c r="F399" s="1"/>
       <c r="G399" s="12"/>
     </row>
     <row r="400">
@@ -50732,7 +49079,7 @@
         <v>110.0</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>38</v>
@@ -50750,36 +49097,20 @@
     </row>
     <row r="402">
       <c r="A402" s="5"/>
-      <c r="B402" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D402" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F402" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+      <c r="E402" s="1"/>
+      <c r="F402" s="1"/>
       <c r="G402" s="12"/>
     </row>
     <row r="403">
       <c r="A403" s="5"/>
-      <c r="B403" s="1" t="s">
-        <v>474</v>
-      </c>
+      <c r="B403" s="1"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
-      <c r="E403" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F403" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="E403" s="1"/>
+      <c r="F403" s="1"/>
       <c r="G403" s="12"/>
     </row>
     <row r="404">
@@ -50796,7 +49127,7 @@
         <v>111.0</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>42</v>
@@ -50814,55 +49145,29 @@
     </row>
     <row r="406">
       <c r="A406" s="5"/>
-      <c r="B406" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
       <c r="D406" s="5"/>
-      <c r="E406" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F406" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="E406" s="1"/>
+      <c r="F406" s="1"/>
       <c r="G406" s="12"/>
     </row>
     <row r="407">
       <c r="A407" s="5"/>
-      <c r="B407" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
       <c r="D407" s="5"/>
-      <c r="E407" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F407" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="E407" s="1"/>
+      <c r="F407" s="1"/>
       <c r="G407" s="12"/>
     </row>
     <row r="408">
       <c r="A408" s="5"/>
-      <c r="B408" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F408" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1"/>
+      <c r="F408" s="1"/>
       <c r="G408" s="12"/>
     </row>
     <row r="409">
@@ -50879,10 +49184,10 @@
         <v>112.0</v>
       </c>
       <c r="B410" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>66</v>
@@ -50897,21 +49202,11 @@
     </row>
     <row r="411">
       <c r="A411" s="5"/>
-      <c r="B411" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D411" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E411" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F411" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="1"/>
+      <c r="F411" s="1"/>
       <c r="G411" s="12"/>
     </row>
     <row r="412">
@@ -50928,13 +49223,13 @@
         <v>113.0</v>
       </c>
       <c r="B413" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C413" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C413" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="D413" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>85</v>
@@ -50946,51 +49241,29 @@
     </row>
     <row r="414">
       <c r="A414" s="5"/>
-      <c r="B414" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D414" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E414" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F414" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="1"/>
+      <c r="F414" s="1"/>
       <c r="G414" s="12"/>
     </row>
     <row r="415">
       <c r="A415" s="5"/>
-      <c r="B415" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>486</v>
-      </c>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
-      <c r="F415" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="F415" s="1"/>
       <c r="G415" s="12"/>
     </row>
     <row r="416">
       <c r="A416" s="5"/>
-      <c r="B416" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>486</v>
-      </c>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
-      <c r="F416" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="F416" s="1"/>
       <c r="G416" s="12"/>
     </row>
     <row r="417">
@@ -51007,7 +49280,7 @@
         <v>114.0</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>38</v>
@@ -51025,72 +49298,38 @@
     </row>
     <row r="419">
       <c r="A419" s="5"/>
-      <c r="B419" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E419" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F419" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="1"/>
+      <c r="E419" s="1"/>
+      <c r="F419" s="1"/>
       <c r="G419" s="12"/>
     </row>
     <row r="420">
       <c r="A420" s="5"/>
-      <c r="B420" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D420" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E420" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F420" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1"/>
+      <c r="E420" s="1"/>
+      <c r="F420" s="1"/>
       <c r="G420" s="12"/>
     </row>
     <row r="421">
       <c r="A421" s="5"/>
-      <c r="B421" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D421" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E421" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F421" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="1"/>
+      <c r="E421" s="1"/>
+      <c r="F421" s="1"/>
       <c r="G421" s="12"/>
     </row>
     <row r="422">
       <c r="A422" s="5"/>
-      <c r="B422" s="1" t="s">
-        <v>494</v>
-      </c>
+      <c r="B422" s="1"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
-      <c r="F422" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="F422" s="1"/>
       <c r="G422" s="12"/>
     </row>
     <row r="423">
@@ -51107,13 +49346,13 @@
         <v>115.0</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>85</v>
@@ -51125,55 +49364,29 @@
     </row>
     <row r="425">
       <c r="A425" s="5"/>
-      <c r="B425" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E425" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F425" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
+      <c r="E425" s="1"/>
+      <c r="F425" s="1"/>
       <c r="G425" s="12"/>
     </row>
     <row r="426">
       <c r="A426" s="5"/>
-      <c r="B426" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E426" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F426" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+      <c r="D426" s="1"/>
+      <c r="E426" s="1"/>
+      <c r="F426" s="1"/>
       <c r="G426" s="12"/>
     </row>
     <row r="427">
       <c r="A427" s="5"/>
-      <c r="B427" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
-      <c r="F427" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="F427" s="1"/>
       <c r="G427" s="12"/>
     </row>
     <row r="428">
@@ -51190,7 +49403,7 @@
         <v>116.0</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>42</v>
@@ -51208,21 +49421,11 @@
     </row>
     <row r="430">
       <c r="A430" s="5"/>
-      <c r="B430" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E430" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F430" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
+      <c r="D430" s="1"/>
+      <c r="E430" s="1"/>
+      <c r="F430" s="1"/>
       <c r="G430" s="12"/>
     </row>
     <row r="431">
@@ -51239,13 +49442,13 @@
         <v>117.0</v>
       </c>
       <c r="B432" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C432" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C432" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="D432" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>14</v>
@@ -51257,34 +49460,20 @@
     </row>
     <row r="433">
       <c r="A433" s="5"/>
-      <c r="B433" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D433" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E433" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F433" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
+      <c r="D433" s="1"/>
+      <c r="E433" s="1"/>
+      <c r="F433" s="1"/>
       <c r="G433" s="12"/>
     </row>
     <row r="434">
       <c r="A434" s="5"/>
-      <c r="B434" s="1" t="s">
-        <v>507</v>
-      </c>
+      <c r="B434" s="1"/>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
-      <c r="F434" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="F434" s="1"/>
       <c r="G434" s="12"/>
     </row>
     <row r="435">
@@ -51301,10 +49490,10 @@
         <v>118.0</v>
       </c>
       <c r="B436" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>62</v>
@@ -51319,21 +49508,11 @@
     </row>
     <row r="437">
       <c r="A437" s="5"/>
-      <c r="B437" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E437" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F437" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+      <c r="E437" s="1"/>
+      <c r="F437" s="1"/>
       <c r="G437" s="12"/>
     </row>
     <row r="438">
@@ -51350,13 +49529,13 @@
         <v>119.0</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>23</v>
@@ -51368,21 +49547,11 @@
     </row>
     <row r="440">
       <c r="A440" s="5"/>
-      <c r="B440" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D440" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E440" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F440" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+      <c r="D440" s="1"/>
+      <c r="E440" s="1"/>
+      <c r="F440" s="1"/>
       <c r="G440" s="12"/>
     </row>
     <row r="441">
@@ -51399,10 +49568,10 @@
         <v>120.0</v>
       </c>
       <c r="B442" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>62</v>
@@ -51429,7 +49598,7 @@
         <v>121.0</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>38</v>
@@ -51447,55 +49616,29 @@
     </row>
     <row r="445">
       <c r="A445" s="5"/>
-      <c r="B445" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E445" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F445" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+      <c r="D445" s="1"/>
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
       <c r="G445" s="12"/>
     </row>
     <row r="446">
       <c r="A446" s="5"/>
-      <c r="B446" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>518</v>
-      </c>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
       <c r="D446" s="5"/>
-      <c r="E446" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F446" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E446" s="1"/>
+      <c r="F446" s="1"/>
       <c r="G446" s="12"/>
     </row>
     <row r="447">
       <c r="A447" s="5"/>
-      <c r="B447" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
       <c r="D447" s="5"/>
-      <c r="E447" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F447" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E447" s="1"/>
+      <c r="F447" s="1"/>
       <c r="G447" s="12"/>
     </row>
     <row r="448">
@@ -51512,13 +49655,13 @@
         <v>122.0</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>14</v>
@@ -51530,53 +49673,29 @@
     </row>
     <row r="450">
       <c r="A450" s="5"/>
-      <c r="B450" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E450" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F450" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+      <c r="D450" s="1"/>
+      <c r="E450" s="1"/>
+      <c r="F450" s="1"/>
       <c r="G450" s="12"/>
     </row>
     <row r="451">
       <c r="A451" s="5"/>
-      <c r="B451" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>523</v>
-      </c>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
       <c r="D451" s="5"/>
-      <c r="E451" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F451" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
       <c r="G451" s="12"/>
     </row>
     <row r="452">
       <c r="A452" s="5"/>
-      <c r="B452" s="1" t="s">
-        <v>524</v>
-      </c>
+      <c r="B452" s="1"/>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
-      <c r="E452" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F452" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E452" s="1"/>
+      <c r="F452" s="1"/>
       <c r="G452" s="12"/>
     </row>
     <row r="453">
@@ -51593,7 +49712,7 @@
         <v>123.0</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>38</v>
@@ -51611,57 +49730,29 @@
     </row>
     <row r="455">
       <c r="A455" s="5"/>
-      <c r="B455" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E455" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F455" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
+      <c r="D455" s="1"/>
+      <c r="E455" s="1"/>
+      <c r="F455" s="1"/>
       <c r="G455" s="12"/>
     </row>
     <row r="456">
       <c r="A456" s="5"/>
-      <c r="B456" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E456" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F456" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B456" s="1"/>
+      <c r="C456" s="1"/>
+      <c r="D456" s="1"/>
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
       <c r="G456" s="12"/>
     </row>
     <row r="457">
       <c r="A457" s="5"/>
-      <c r="B457" s="1" t="s">
-        <v>529</v>
-      </c>
+      <c r="B457" s="1"/>
       <c r="C457" s="5"/>
-      <c r="D457" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F457" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="D457" s="1"/>
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
       <c r="G457" s="12"/>
     </row>
     <row r="458">
@@ -51678,10 +49769,10 @@
         <v>124.0</v>
       </c>
       <c r="B459" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>45</v>
@@ -51708,13 +49799,13 @@
         <v>125.0</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E461" s="1" t="s">
         <v>14</v>
@@ -51726,21 +49817,11 @@
     </row>
     <row r="462">
       <c r="A462" s="1"/>
-      <c r="B462" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E462" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F462" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="B462" s="1"/>
+      <c r="C462" s="1"/>
+      <c r="D462" s="1"/>
+      <c r="E462" s="1"/>
+      <c r="F462" s="1"/>
       <c r="G462" s="12"/>
     </row>
     <row r="463">
@@ -51757,7 +49838,7 @@
         <v>126.0</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>65</v>
@@ -51787,13 +49868,13 @@
         <v>127.0</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E466" s="1" t="s">
         <v>14</v>
@@ -51805,21 +49886,11 @@
     </row>
     <row r="467">
       <c r="A467" s="5"/>
-      <c r="B467" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D467" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F467" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B467" s="1"/>
+      <c r="C467" s="1"/>
+      <c r="D467" s="23"/>
+      <c r="E467" s="1"/>
+      <c r="F467" s="1"/>
       <c r="G467" s="12"/>
     </row>
     <row r="468">
@@ -51836,7 +49907,7 @@
         <v>128.0</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>42</v>
@@ -51854,36 +49925,20 @@
     </row>
     <row r="470">
       <c r="A470" s="5"/>
-      <c r="B470" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D470" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E470" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F470" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+      <c r="D470" s="1"/>
+      <c r="E470" s="1"/>
+      <c r="F470" s="1"/>
       <c r="G470" s="12"/>
     </row>
     <row r="471">
       <c r="A471" s="5"/>
-      <c r="B471" s="1" t="s">
-        <v>542</v>
-      </c>
+      <c r="B471" s="1"/>
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
-      <c r="E471" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F471" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E471" s="1"/>
+      <c r="F471" s="1"/>
       <c r="G471" s="12"/>
     </row>
     <row r="472">
@@ -51900,7 +49955,7 @@
         <v>129.0</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>65</v>
@@ -51918,21 +49973,11 @@
     </row>
     <row r="474">
       <c r="A474" s="5"/>
-      <c r="B474" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E474" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F474" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+      <c r="D474" s="1"/>
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
       <c r="G474" s="12"/>
     </row>
     <row r="475">
@@ -51949,11 +49994,11 @@
         <v>130.0</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C476" s="5"/>
       <c r="D476" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E476" s="1" t="s">
         <v>14</v>
@@ -51977,13 +50022,13 @@
         <v>131.0</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E478" s="1" t="s">
         <v>23</v>
@@ -51995,21 +50040,11 @@
     </row>
     <row r="479">
       <c r="A479" s="5"/>
-      <c r="B479" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D479" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="E479" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F479" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
+      <c r="D479" s="23"/>
+      <c r="E479" s="1"/>
+      <c r="F479" s="1"/>
       <c r="G479" s="12"/>
     </row>
     <row r="480">
@@ -52026,13 +50061,13 @@
         <v>132.0</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D481" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>14</v>
@@ -52044,21 +50079,11 @@
     </row>
     <row r="482">
       <c r="A482" s="5"/>
-      <c r="B482" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D482" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="E482" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F482" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+      <c r="D482" s="23"/>
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
       <c r="G482" s="12"/>
     </row>
     <row r="483">
@@ -52075,7 +50100,7 @@
         <v>133.0</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>16</v>
@@ -52093,21 +50118,11 @@
     </row>
     <row r="485">
       <c r="A485" s="5"/>
-      <c r="B485" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D485" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E485" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F485" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+      <c r="D485" s="1"/>
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
       <c r="G485" s="12"/>
     </row>
     <row r="486">
@@ -52124,13 +50139,13 @@
         <v>134.0</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D487" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E487" s="1" t="s">
         <v>14</v>
@@ -52142,21 +50157,11 @@
     </row>
     <row r="488">
       <c r="A488" s="5"/>
-      <c r="B488" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D488" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E488" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F488" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
+      <c r="D488" s="1"/>
+      <c r="E488" s="1"/>
+      <c r="F488" s="1"/>
       <c r="G488" s="12"/>
     </row>
     <row r="489">
@@ -52173,10 +50178,10 @@
         <v>135.0</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>17</v>
@@ -52203,13 +50208,13 @@
         <v>136.0</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D492" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>140</v>
@@ -52221,19 +50226,11 @@
     </row>
     <row r="493">
       <c r="A493" s="5"/>
-      <c r="B493" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
       <c r="D493" s="5"/>
-      <c r="E493" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F493" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E493" s="1"/>
+      <c r="F493" s="1"/>
       <c r="G493" s="12"/>
     </row>
     <row r="494">
@@ -52250,13 +50247,13 @@
         <v>137.0</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>14</v>
@@ -52268,19 +50265,11 @@
     </row>
     <row r="496">
       <c r="A496" s="5"/>
-      <c r="B496" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="B496" s="1"/>
+      <c r="C496" s="1"/>
       <c r="D496" s="5"/>
-      <c r="E496" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F496" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E496" s="1"/>
+      <c r="F496" s="1"/>
       <c r="G496" s="12"/>
     </row>
     <row r="497">
@@ -52297,7 +50286,7 @@
         <v>138.0</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>38</v>
@@ -52325,13 +50314,13 @@
         <v>139.0</v>
       </c>
       <c r="B500" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C500" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C500" s="1" t="s">
+      <c r="D500" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="D500" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="E500" s="1" t="s">
         <v>14</v>
@@ -52355,13 +50344,13 @@
         <v>140.0</v>
       </c>
       <c r="B502" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C502" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C502" s="1" t="s">
+      <c r="D502" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="D502" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="E502" s="1" t="s">
         <v>14</v>
@@ -52373,38 +50362,20 @@
     </row>
     <row r="503">
       <c r="A503" s="5"/>
-      <c r="B503" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C503" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D503" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E503" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F503" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
+      <c r="D503" s="1"/>
+      <c r="E503" s="1"/>
+      <c r="F503" s="1"/>
       <c r="G503" s="12"/>
     </row>
     <row r="504">
       <c r="A504" s="5"/>
-      <c r="B504" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>566</v>
-      </c>
+      <c r="B504" s="1"/>
+      <c r="C504" s="1"/>
       <c r="D504" s="5"/>
-      <c r="E504" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F504" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="E504" s="1"/>
+      <c r="F504" s="1"/>
       <c r="G504" s="12"/>
     </row>
     <row r="505">
@@ -52421,7 +50392,7 @@
         <v>141.0</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>16</v>
@@ -52439,53 +50410,29 @@
     </row>
     <row r="507">
       <c r="A507" s="5"/>
-      <c r="B507" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
       <c r="D507" s="5"/>
-      <c r="E507" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F507" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E507" s="1"/>
+      <c r="F507" s="1"/>
       <c r="G507" s="12"/>
     </row>
     <row r="508">
       <c r="A508" s="5"/>
-      <c r="B508" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="B508" s="1"/>
+      <c r="C508" s="1"/>
       <c r="D508" s="5"/>
-      <c r="E508" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F508" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E508" s="1"/>
+      <c r="F508" s="1"/>
       <c r="G508" s="12"/>
     </row>
     <row r="509">
       <c r="A509" s="5"/>
-      <c r="B509" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B509" s="1"/>
+      <c r="C509" s="1"/>
       <c r="D509" s="5"/>
-      <c r="E509" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F509" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E509" s="1"/>
+      <c r="F509" s="1"/>
       <c r="G509" s="12"/>
     </row>
     <row r="510">
@@ -52502,7 +50449,7 @@
         <v>142.0</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>100</v>
@@ -52520,57 +50467,29 @@
     </row>
     <row r="512">
       <c r="A512" s="5"/>
-      <c r="B512" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D512" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="E512" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F512" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B512" s="1"/>
+      <c r="C512" s="1"/>
+      <c r="D512" s="1"/>
+      <c r="E512" s="1"/>
+      <c r="F512" s="1"/>
       <c r="G512" s="12"/>
     </row>
     <row r="513">
       <c r="A513" s="5"/>
-      <c r="B513" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D513" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E513" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F513" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B513" s="1"/>
+      <c r="C513" s="1"/>
+      <c r="D513" s="1"/>
+      <c r="E513" s="1"/>
+      <c r="F513" s="1"/>
       <c r="G513" s="12"/>
     </row>
     <row r="514">
       <c r="A514" s="5"/>
-      <c r="B514" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>579</v>
-      </c>
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
       <c r="D514" s="5"/>
-      <c r="E514" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F514" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="E514" s="1"/>
+      <c r="F514" s="1"/>
       <c r="G514" s="12"/>
     </row>
     <row r="515">
@@ -52587,7 +50506,7 @@
         <v>143.0</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>16</v>
@@ -52603,53 +50522,29 @@
     </row>
     <row r="517">
       <c r="A517" s="5"/>
-      <c r="B517" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C517" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="B517" s="1"/>
+      <c r="C517" s="1"/>
       <c r="D517" s="5"/>
-      <c r="E517" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F517" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E517" s="1"/>
+      <c r="F517" s="1"/>
       <c r="G517" s="12"/>
     </row>
     <row r="518">
       <c r="A518" s="5"/>
-      <c r="B518" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C518" s="1" t="s">
-        <v>459</v>
-      </c>
+      <c r="B518" s="1"/>
+      <c r="C518" s="1"/>
       <c r="D518" s="5"/>
-      <c r="E518" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F518" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E518" s="1"/>
+      <c r="F518" s="1"/>
       <c r="G518" s="12"/>
     </row>
     <row r="519">
       <c r="A519" s="5"/>
-      <c r="B519" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C519" s="1" t="s">
-        <v>579</v>
-      </c>
+      <c r="B519" s="1"/>
+      <c r="C519" s="1"/>
       <c r="D519" s="5"/>
-      <c r="E519" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F519" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E519" s="1"/>
+      <c r="F519" s="1"/>
       <c r="G519" s="12"/>
     </row>
     <row r="520">
@@ -52666,7 +50561,7 @@
         <v>144.0</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>21</v>
@@ -52696,7 +50591,7 @@
         <v>145.0</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>38</v>
@@ -52714,21 +50609,11 @@
     </row>
     <row r="524">
       <c r="A524" s="5"/>
-      <c r="B524" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D524" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E524" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F524" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B524" s="1"/>
+      <c r="C524" s="1"/>
+      <c r="D524" s="1"/>
+      <c r="E524" s="1"/>
+      <c r="F524" s="1"/>
       <c r="G524" s="12"/>
     </row>
     <row r="525">
@@ -52745,7 +50630,7 @@
         <v>146.0</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>131</v>
@@ -52763,70 +50648,38 @@
     </row>
     <row r="527">
       <c r="A527" s="5"/>
-      <c r="B527" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C527" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
       <c r="D527" s="5"/>
-      <c r="E527" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F527" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E527" s="1"/>
+      <c r="F527" s="1"/>
       <c r="G527" s="12"/>
     </row>
     <row r="528">
       <c r="A528" s="5"/>
-      <c r="B528" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="B528" s="1"/>
+      <c r="C528" s="1"/>
       <c r="D528" s="5"/>
-      <c r="E528" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F528" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E528" s="1"/>
+      <c r="F528" s="1"/>
       <c r="G528" s="12"/>
     </row>
     <row r="529">
       <c r="A529" s="5"/>
-      <c r="B529" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B529" s="1"/>
+      <c r="C529" s="1"/>
       <c r="D529" s="5"/>
-      <c r="E529" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F529" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E529" s="1"/>
+      <c r="F529" s="1"/>
       <c r="G529" s="12"/>
     </row>
     <row r="530">
       <c r="A530" s="5"/>
-      <c r="B530" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C530" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B530" s="1"/>
+      <c r="C530" s="1"/>
       <c r="D530" s="5"/>
-      <c r="E530" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F530" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E530" s="1"/>
+      <c r="F530" s="1"/>
       <c r="G530" s="12"/>
     </row>
     <row r="531">
@@ -52843,13 +50696,13 @@
         <v>147.0</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E532" s="1" t="s">
         <v>14</v>
@@ -52861,53 +50714,29 @@
     </row>
     <row r="533">
       <c r="A533" s="5"/>
-      <c r="B533" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C533" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B533" s="1"/>
+      <c r="C533" s="1"/>
       <c r="D533" s="5"/>
-      <c r="E533" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F533" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E533" s="1"/>
+      <c r="F533" s="1"/>
       <c r="G533" s="12"/>
     </row>
     <row r="534">
       <c r="A534" s="5"/>
-      <c r="B534" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C534" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B534" s="1"/>
+      <c r="C534" s="1"/>
       <c r="D534" s="5"/>
-      <c r="E534" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F534" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E534" s="1"/>
+      <c r="F534" s="1"/>
       <c r="G534" s="12"/>
     </row>
     <row r="535">
       <c r="A535" s="5"/>
-      <c r="B535" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C535" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B535" s="1"/>
+      <c r="C535" s="1"/>
       <c r="D535" s="5"/>
-      <c r="E535" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F535" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="E535" s="1"/>
+      <c r="F535" s="1"/>
       <c r="G535" s="12"/>
     </row>
     <row r="536">
@@ -52924,7 +50753,7 @@
         <v>148.0</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>16</v>
@@ -52942,36 +50771,20 @@
     </row>
     <row r="538">
       <c r="A538" s="5"/>
-      <c r="B538" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D538" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E538" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F538" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B538" s="1"/>
+      <c r="C538" s="1"/>
+      <c r="D538" s="1"/>
+      <c r="E538" s="1"/>
+      <c r="F538" s="1"/>
       <c r="G538" s="12"/>
     </row>
     <row r="539">
       <c r="A539" s="5"/>
-      <c r="B539" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B539" s="1"/>
+      <c r="C539" s="1"/>
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
-      <c r="F539" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="F539" s="1"/>
       <c r="G539" s="12"/>
     </row>
     <row r="540">
@@ -52988,13 +50801,13 @@
         <v>149.0</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E541" s="1" t="s">
         <v>14</v>
@@ -53006,21 +50819,11 @@
     </row>
     <row r="542">
       <c r="A542" s="5"/>
-      <c r="B542" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C542" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D542" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E542" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F542" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
+      <c r="D542" s="1"/>
+      <c r="E542" s="1"/>
+      <c r="F542" s="1"/>
       <c r="G542" s="12"/>
     </row>
     <row r="543">
@@ -53037,7 +50840,7 @@
         <v>150.0</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>16</v>
@@ -53055,51 +50858,29 @@
     </row>
     <row r="545">
       <c r="A545" s="5"/>
-      <c r="B545" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D545" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E545" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F545" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="B545" s="1"/>
+      <c r="C545" s="1"/>
+      <c r="D545" s="1"/>
+      <c r="E545" s="1"/>
+      <c r="F545" s="1"/>
       <c r="G545" s="12"/>
     </row>
     <row r="546">
       <c r="A546" s="5"/>
-      <c r="B546" s="1" t="s">
-        <v>605</v>
-      </c>
+      <c r="B546" s="1"/>
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
-      <c r="E546" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F546" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E546" s="1"/>
+      <c r="F546" s="1"/>
       <c r="G546" s="12"/>
     </row>
     <row r="547">
       <c r="A547" s="5"/>
-      <c r="B547" s="1" t="s">
-        <v>606</v>
-      </c>
+      <c r="B547" s="1"/>
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
-      <c r="E547" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F547" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E547" s="1"/>
+      <c r="F547" s="1"/>
       <c r="G547" s="12"/>
     </row>
     <row r="548">
@@ -53116,7 +50897,7 @@
         <v>151.0</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>16</v>
@@ -53132,47 +50913,29 @@
     </row>
     <row r="550">
       <c r="A550" s="5"/>
-      <c r="B550" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D550" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E550" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F550" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B550" s="1"/>
+      <c r="C550" s="1"/>
+      <c r="D550" s="1"/>
+      <c r="E550" s="1"/>
+      <c r="F550" s="1"/>
       <c r="G550" s="12"/>
     </row>
     <row r="551">
       <c r="A551" s="5"/>
-      <c r="B551" s="1" t="s">
-        <v>609</v>
-      </c>
+      <c r="B551" s="1"/>
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
-      <c r="F551" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="F551" s="1"/>
       <c r="G551" s="12"/>
     </row>
     <row r="552">
       <c r="A552" s="5"/>
-      <c r="B552" s="1" t="s">
-        <v>610</v>
-      </c>
+      <c r="B552" s="1"/>
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
-      <c r="F552" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="F552" s="1"/>
       <c r="G552" s="12"/>
     </row>
     <row r="553">
@@ -53189,13 +50952,13 @@
         <v>152.0</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E554" s="1" t="s">
         <v>23</v>
@@ -53219,13 +50982,13 @@
         <v>153.0</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E556" s="1" t="s">
         <v>23</v>
@@ -53237,38 +51000,20 @@
     </row>
     <row r="557">
       <c r="A557" s="5"/>
-      <c r="B557" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C557" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D557" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E557" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F557" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B557" s="1"/>
+      <c r="C557" s="1"/>
+      <c r="D557" s="1"/>
+      <c r="E557" s="1"/>
+      <c r="F557" s="1"/>
       <c r="G557" s="12"/>
     </row>
     <row r="558">
       <c r="A558" s="5"/>
-      <c r="B558" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C558" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="B558" s="1"/>
+      <c r="C558" s="1"/>
       <c r="D558" s="5"/>
-      <c r="E558" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F558" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="E558" s="1"/>
+      <c r="F558" s="1"/>
       <c r="G558" s="12"/>
     </row>
     <row r="559">
@@ -53285,13 +51030,13 @@
         <v>154.0</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E560" s="1" t="s">
         <v>10</v>
@@ -53303,21 +51048,11 @@
     </row>
     <row r="561">
       <c r="A561" s="5"/>
-      <c r="B561" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C561" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D561" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="E561" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F561" s="20" t="s">
-        <v>12</v>
-      </c>
+      <c r="B561" s="1"/>
+      <c r="C561" s="1"/>
+      <c r="D561" s="1"/>
+      <c r="E561" s="1"/>
+      <c r="F561" s="1"/>
       <c r="G561" s="12"/>
     </row>
     <row r="562">
@@ -53334,7 +51069,7 @@
         <v>155.0</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
@@ -53348,20 +51083,15 @@
     </row>
     <row r="564">
       <c r="A564" s="5"/>
-      <c r="B564" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C564" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B564" s="1"/>
+      <c r="C564" s="1"/>
       <c r="D564" s="5"/>
-      <c r="E564" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F564" s="22" t="s">
-        <v>18</v>
-      </c>
+      <c r="E564" s="1"/>
+      <c r="F564" s="1"/>
       <c r="G564" s="12"/>
+    </row>
+    <row r="569">
+      <c r="E569" s="29"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
